--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,230 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1443000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1465000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1375600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1658300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2189200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>993300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1049400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>980700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>933100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>848000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3504300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>907700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>873200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>814000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E9" s="3">
         <v>663000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>582700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>798600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>942600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>423400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>445100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>404400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>396400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>370400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1495100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>383200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>377900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>352700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>821000</v>
+      </c>
+      <c r="E10" s="3">
         <v>802000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>792900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>859700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1246600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>569900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>604300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>576300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>536700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>477600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2009200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>524500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>495300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>461300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -893,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -940,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,102 +1004,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>28000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-18100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>136400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>53500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E15" s="3">
         <v>40000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>50000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>41900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>43100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>18700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>19200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>89200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>22100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>25500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E17" s="3">
         <v>927000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>787200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1213400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1299100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>571500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>593900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>547500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>524000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>495000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2024500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>520000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>506900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>497000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E18" s="3">
         <v>538000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>588400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>444900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>890100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>421800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>455500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>433200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>409100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>353100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1479800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>387700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>366300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>317000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,110 +1243,117 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-244000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-248000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-239400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-373200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-172000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-173600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-167600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-161900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-162100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-642400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-152600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-151300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-178100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E21" s="3">
         <v>363000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>418600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>276800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>593200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>285200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>316200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>299500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>278200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>221600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>978500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>272000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>249900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>177000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
+      <c r="E22" s="3">
+        <v>1000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1330,8 +1370,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1351,102 +1391,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E23" s="3">
         <v>293000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>340400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>205500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>516900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>249800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>281900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>265500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>247200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>191000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>837400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>235100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>215000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>138900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E24" s="3">
         <v>59000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>42800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>60900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>118300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>53700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>50900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>48200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>208900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>59500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E26" s="3">
         <v>234000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>297600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>144600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>398700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>196000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>231000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>217400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>201800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>164900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>628500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>169100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>155500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E27" s="3">
         <v>48000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>209700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>144500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>374100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>171700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>231000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>217400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>201800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>108800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>469300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>169100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>155500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,20 +1691,23 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E29" s="3">
         <v>71000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>50400</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1654,22 +1715,22 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>149900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1841,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E32" s="3">
         <v>244000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>248000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>239400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>373200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>172000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>173600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>167600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>161900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>162100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>642400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>152600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>151300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>178100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E33" s="3">
         <v>119000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>260200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>144500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>374100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>171700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>228800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>217200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>196300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>258600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>437600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>169100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>155500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E35" s="3">
         <v>119000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>260200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>144500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>374100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>171700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>228800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>217200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>196300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>258600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>437600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>169100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>155500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,55 +2138,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2668000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4194000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1467500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2716800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2441300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2337300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2073000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1853400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1011000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>857900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>650600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>970600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>985400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>972400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,196 +2236,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1068000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1111700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1206100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1207900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>674300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>704300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>658200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>645000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>556700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>636100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>606000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>574000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>512800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1313000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1294000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1232600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1413900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1453000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>838700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>805300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>815300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>767200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>743900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>730700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>743600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>725000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>715400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E45" s="3">
         <v>96000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1053400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>74400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>493200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>76300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>116200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>34900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6652000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4865200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5411200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5595500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3926600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3657300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3385400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2470100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2271300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2133600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2387000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2320400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2235400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2343,19 +2448,19 @@
         <v>6000</v>
       </c>
       <c r="E47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>100</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
+      <c r="I47" s="3">
+        <v>100</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -2372,8 +2477,8 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2381,102 +2486,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>850000</v>
+      </c>
+      <c r="E48" s="3">
         <v>855000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>756800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>745500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>737600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>396000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>388300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>380500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>352500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>327300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>324900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>326300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>319400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>314600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10515000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10583000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10563900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11418700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11338800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8001500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8011700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>7924300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7459100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7448500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7463200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7553200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7488200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7422600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,55 +2686,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E52" s="3">
         <v>60000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>117600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>65100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>140200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>113000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>59300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16635000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18156000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16254700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>17702600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17797200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12389300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12197500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11804500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10394700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10112100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9975700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10316400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10187300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10037100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,290 +2878,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E57" s="3">
         <v>265000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>276600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>310400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>318600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>176000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>173600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>155900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>151700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>145000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>148800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>147100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>139000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>129500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="E58" s="3">
         <v>431000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>429700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>380800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>748000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>375500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>375300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>375700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>369000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>368900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>369000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>264100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>264000</v>
       </c>
       <c r="P58" s="3">
         <v>264000</v>
       </c>
       <c r="Q58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="R58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2654000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>832400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>689400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>659600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>399700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>351400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>285500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>292100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>309500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>353200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>319600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>329700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>305400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1656000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3350000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1538800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1380600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1726200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>951300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>900400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>817200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>812800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>823400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>871000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>730700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>732600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>698900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17989000</v>
+      </c>
+      <c r="E61" s="3">
         <v>18003000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>16469200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16495900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16509200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12507600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12501900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12516000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11365800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11378300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11393600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10828200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10839300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10555900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1102000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1131800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1136700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1044000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>597300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>603600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>569800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>525400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>510100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>662300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>653000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>654200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>656900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20844000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22459000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19149600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19023800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19288900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14056200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14005900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13903000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12704000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12711800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12926900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12211900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12226100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11911700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,55 +3596,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4401000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,55 +3796,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4209000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E81" s="3">
         <v>119000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>260200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>144500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>374100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>171700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>228800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>217200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>196300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>258600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>437600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>169100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>155500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,55 +4023,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E83" s="3">
         <v>69000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>71300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>35400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>33900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>31000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>30600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>141000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>36900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E89" s="3">
         <v>433000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>247100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>315400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>453000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>329900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>331300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>237200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>788700</v>
-      </c>
-      <c r="N89" s="3">
-        <v>164700</v>
       </c>
       <c r="O89" s="3">
         <v>164700</v>
       </c>
       <c r="P89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="Q89" s="3">
         <v>225800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E94" s="3">
         <v>877000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>148400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-424600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-108900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-551200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-8200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-15300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-287000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-123600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-95500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,28 +4613,29 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1864000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-64000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>-24300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4410,25 +4644,28 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-56100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,145 +4811,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1662000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1414000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3914800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1161600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-71000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-56900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-784700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1526000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2727000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-112100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>755900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>264300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>219600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>842400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>153100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>207300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-936400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-14800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-614600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1443000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1465000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1375600</v>
       </c>
-      <c r="G8" s="3">
-        <v>1658300</v>
-      </c>
       <c r="H8" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="I8" s="3">
         <v>2189200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>993300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1049400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>980700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>933100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>848000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3504300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>907700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>873200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>814000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>512000</v>
+      </c>
+      <c r="E9" s="3">
         <v>622000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>663000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>582700</v>
       </c>
-      <c r="G9" s="3">
-        <v>798600</v>
-      </c>
       <c r="H9" s="3">
+        <v>711000</v>
+      </c>
+      <c r="I9" s="3">
         <v>942600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>423400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>445100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>404400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>396400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>370400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1495100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>383200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>377900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>352700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>510000</v>
+      </c>
+      <c r="E10" s="3">
         <v>821000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>802000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>792900</v>
       </c>
-      <c r="G10" s="3">
-        <v>859700</v>
-      </c>
       <c r="H10" s="3">
+        <v>810000</v>
+      </c>
+      <c r="I10" s="3">
         <v>1246600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>569900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>604300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>576300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>536700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>477600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2009200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>524500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>495300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>461300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,108 +1024,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E14" s="3">
         <v>12000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-18100</v>
       </c>
-      <c r="G14" s="3">
-        <v>136400</v>
-      </c>
       <c r="H14" s="3">
+        <v>135000</v>
+      </c>
+      <c r="I14" s="3">
         <v>53500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E15" s="3">
         <v>46000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>40000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>50000</v>
       </c>
-      <c r="G15" s="3">
-        <v>41900</v>
-      </c>
       <c r="H15" s="3">
+        <v>38000</v>
+      </c>
+      <c r="I15" s="3">
         <v>43100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>18700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>89200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>23600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>25500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E17" s="3">
         <v>854000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>927000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>787200</v>
       </c>
-      <c r="G17" s="3">
-        <v>1213400</v>
-      </c>
       <c r="H17" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1299100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>571500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>593900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>547500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>524000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>495000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2024500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>520000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>506900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>497000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E18" s="3">
         <v>589000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>538000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>588400</v>
       </c>
-      <c r="G18" s="3">
-        <v>444900</v>
-      </c>
       <c r="H18" s="3">
+        <v>423000</v>
+      </c>
+      <c r="I18" s="3">
         <v>890100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>421800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>455500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>433200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>409100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>353100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1479800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>387700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>366300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>317000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,108 +1277,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-251000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-244000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-248000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-239400</v>
-      </c>
       <c r="H20" s="3">
+        <v>-240000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-373200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-172000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-173600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-167600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-161900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-162100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-642400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-152600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-151300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-178100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E21" s="3">
         <v>410000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>363000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>418600</v>
       </c>
-      <c r="G21" s="3">
-        <v>276800</v>
-      </c>
       <c r="H21" s="3">
+        <v>254300</v>
+      </c>
+      <c r="I21" s="3">
         <v>593200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>285200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>316200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>299500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>278200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>221600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>978500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>272000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>249900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>177000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1355,8 +1395,8 @@
       <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>1000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1373,8 +1413,8 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1394,108 +1434,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E23" s="3">
         <v>337000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>293000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>340400</v>
       </c>
-      <c r="G23" s="3">
-        <v>205500</v>
-      </c>
       <c r="H23" s="3">
+        <v>183000</v>
+      </c>
+      <c r="I23" s="3">
         <v>516900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>249800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>281900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>265500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>247200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>191000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>837400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>235100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>215000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>138900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>14000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>59000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42800</v>
       </c>
-      <c r="G24" s="3">
-        <v>60900</v>
-      </c>
       <c r="H24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="I24" s="3">
         <v>118300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>50900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>208900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E26" s="3">
         <v>323000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>234000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>297600</v>
       </c>
-      <c r="G26" s="3">
-        <v>144600</v>
-      </c>
       <c r="H26" s="3">
+        <v>128000</v>
+      </c>
+      <c r="I26" s="3">
         <v>398700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>196000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>217400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>201800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>164900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>628500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>169100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>155500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>118900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E27" s="3">
         <v>323000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>48000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>209700</v>
       </c>
-      <c r="G27" s="3">
-        <v>144500</v>
-      </c>
       <c r="H27" s="3">
+        <v>128000</v>
+      </c>
+      <c r="I27" s="3">
         <v>374100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>171700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>231000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>201800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>108800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>469300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>169100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>155500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,46 +1752,49 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-4000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>71000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>50400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>149900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E32" s="3">
         <v>251000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>244000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>248000</v>
       </c>
-      <c r="G32" s="3">
-        <v>239400</v>
-      </c>
       <c r="H32" s="3">
+        <v>240000</v>
+      </c>
+      <c r="I32" s="3">
         <v>373200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>172000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>173600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>167600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>161900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>162100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>642400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>152600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>151300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>178100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E33" s="3">
         <v>319000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>119000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>260200</v>
       </c>
-      <c r="G33" s="3">
-        <v>144500</v>
-      </c>
       <c r="H33" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I33" s="3">
         <v>374100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>171700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>228800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>217200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>196300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>258600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>437600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>169100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>155500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E35" s="3">
         <v>319000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>119000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>260200</v>
       </c>
-      <c r="G35" s="3">
-        <v>144500</v>
-      </c>
       <c r="H35" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I35" s="3">
         <v>374100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>171700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>228800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>217200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>196300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>258600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>437600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>169100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>155500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,58 +2225,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4549000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2668000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4194000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1467500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2716800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2441300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2337300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2073000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1853400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1011000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>857900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>650600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>970600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>985400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>972400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,231 +2329,246 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1039000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1068000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1111700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1206100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1207900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>674300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>704300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>658200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>645000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>556700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>636100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>606000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>574000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>512800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1313000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1294000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1232600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1413900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1453000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>838700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>805300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>815300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>767200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>743900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>730700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>743600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>725000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>715400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E45" s="3">
         <v>180000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>96000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1053400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>74400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>493200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>76300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>74700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>58600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>116200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>34900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6771000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6652000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4865200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5411200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5595500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3926600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3657300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3385400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2470100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2271300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2133600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2387000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2320400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2235400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="3">
         <v>6000</v>
       </c>
       <c r="F47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G47" s="3">
         <v>7200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
+      <c r="J47" s="3">
+        <v>100</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2480,8 +2585,8 @@
       <c r="O47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2489,108 +2594,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E48" s="3">
         <v>850000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>855000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>756800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>745500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>737600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>396000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>388300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>380500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>352500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>327300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>324900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>326300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>319400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>314600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10492000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10515000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10583000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10563900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11418700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11338800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8001500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8011700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7924300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7459100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7448500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7463200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7553200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7488200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7422600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,58 +2806,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E52" s="3">
         <v>64000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>117600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>125100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>65100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>140200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>113000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>54000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>49800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>59300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>64600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18179000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16635000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18156000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16254700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>17702600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17797200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12389300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12197500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11804500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10394700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10112100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9975700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10316400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10187300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10037100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,58 +3009,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E57" s="3">
         <v>266000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>265000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>276600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>310400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>318600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>176000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>173600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>155900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>151700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>145000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>148800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>147100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>139000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>129500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2938,249 +3072,264 @@
         <v>631000</v>
       </c>
       <c r="E58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="F58" s="3">
         <v>431000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>429700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>380800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>748000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>375500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>375300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>375700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>369000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>368900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>369000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>264100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>264000</v>
       </c>
       <c r="Q58" s="3">
         <v>264000</v>
       </c>
       <c r="R58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="S58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E59" s="3">
         <v>759000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2654000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>832400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>689400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>659600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>399700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>351400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>285500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>292100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>309500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>353200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>319600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>329700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>305400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1651000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1656000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3350000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1538800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1380600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1726200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>951300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>900400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>817200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>812800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>823400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>871000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>730700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>732600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>698900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19465000</v>
+      </c>
+      <c r="E61" s="3">
         <v>17989000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18003000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>16469200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16495900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16509200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12507600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12501900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12516000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11365800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11378300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11393600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10828200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10839300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10555900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1195000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1102000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1131800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1136700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1044000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>597300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>603600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>569800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>525400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>510100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>662300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>653000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>654200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>656900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22362000</v>
+      </c>
+      <c r="E66" s="3">
         <v>20844000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22459000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19149600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19023800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19288900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14056200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14005900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13903000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12704000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12711800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12926900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12211900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12226100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11911700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4427000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4183000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E81" s="3">
         <v>319000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>119000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>260200</v>
       </c>
-      <c r="G81" s="3">
-        <v>144500</v>
-      </c>
       <c r="H81" s="3">
+        <v>145000</v>
+      </c>
+      <c r="I81" s="3">
         <v>374100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>171700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>228800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>217200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>196300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>258600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>437600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>169100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>155500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,58 +4222,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>71300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>76200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>35400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>33900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>31000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>30600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>141000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>36900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>38000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E89" s="3">
         <v>161000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>433000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>247100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>315400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>453000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>329900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>331300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>237200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>292800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>788700</v>
-      </c>
-      <c r="O89" s="3">
-        <v>164700</v>
       </c>
       <c r="P89" s="3">
         <v>164700</v>
       </c>
       <c r="Q89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="R89" s="3">
         <v>225800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>877000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>148400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-424600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-108900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-551200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-15300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-287000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-123600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-95500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,31 +4847,32 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-64000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-24300</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4647,25 +4881,28 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-56100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,154 +5057,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1414000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3914800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-10400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1161600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-71000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-56900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-784700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3900</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1881000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2727000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-112100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>755900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>264300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>219600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>842400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>153100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>207300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-936400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-14800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-614600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1173000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1022000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1443000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1465000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1375600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1521000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2189200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>993300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1049400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>980700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>933100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>848000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3504300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>907700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>873200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>814000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>613000</v>
+      </c>
+      <c r="E9" s="3">
         <v>512000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>622000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>663000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>582700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>711000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>942600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>423400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>445100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>404400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>396400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>370400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1495100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>383200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>377900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>352700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>560000</v>
+      </c>
+      <c r="E10" s="3">
         <v>510000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>821000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>802000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>792900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>810000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1246600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>569900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>604300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>576300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>536700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>477600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2009200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>524500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>495300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>461300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,114 +1044,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-18100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>135000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>53500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E15" s="3">
         <v>42000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>46000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>40000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>50000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>38000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>43100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>20000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>18700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>19200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>89200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>23600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>25500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E17" s="3">
         <v>737000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>854000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>927000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>787200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1098000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1299100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>571500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>593900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>547500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>524000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>495000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2024500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>520000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>506900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>497000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E18" s="3">
         <v>285000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>589000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>538000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>588400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>423000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>890100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>421800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>455500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>433200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>409100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>353100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1479800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>387700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>366300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>317000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1311,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-250000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-251000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-244000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-248000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-240000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-373200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-172000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-173600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-167600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-161900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-162100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-642400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-152600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-151300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-178100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E21" s="3">
         <v>105000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>410000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>363000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>418600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>254300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>593200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>285200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>316200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>299500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>278200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>221600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>978500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>272000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>249900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>177000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,8 +1438,8 @@
       <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+      <c r="G22" s="3">
+        <v>1000</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1416,8 +1456,8 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1437,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E23" s="3">
         <v>34000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>337000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>293000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>340400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>183000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>516900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>249800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>281900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>265500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>247200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>191000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>837400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>235100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>215000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>138900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>59000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>42800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>55000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>118300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>53700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>208900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>323000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>234000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>297600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>128000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>398700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>196000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>217400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>201800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>164900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>628500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>169100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>155500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>118900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>323000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>48000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>209700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>374100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>171700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>231000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>201800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>108800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>469300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>169100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>155500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,49 +1813,52 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-4000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>71000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>50400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>17000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>149900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E32" s="3">
         <v>250000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>251000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>244000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>248000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>240000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>373200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>172000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>173600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>167600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>161900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>162100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>642400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>152600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>151300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>178100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>319000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>119000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>260200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>145000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>374100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>171700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>228800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>217200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>196300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>258600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>437600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>169100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>155500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>319000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>119000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>260200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>145000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>374100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>171700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>228800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>217200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>196300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>258600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>437600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>169100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>155500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4717000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4549000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2668000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4194000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1467500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2716800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2441300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2337300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2073000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1853400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1011000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>857900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>650600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>970600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>985400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>972400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,246 +2422,261 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E43" s="3">
         <v>765000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1039000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1068000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1111700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1206100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1207900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>674300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>704300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>658200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>645000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>556700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>636100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>606000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>574000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>512800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1283000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1344000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1313000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1294000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1232600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1413900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1453000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>838700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>805300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>815300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>767200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>743900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>730700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>743600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>725000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>715400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E45" s="3">
         <v>113000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>180000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1053400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>74400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>493200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>76300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>112900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>116200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>66900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>34900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6960000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6771000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6652000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4865200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5411200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5595500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3926600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3657300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3385400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2470100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2271300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2133600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2387000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2320400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2235400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>6000</v>
       </c>
       <c r="F47" s="3">
         <v>6000</v>
       </c>
       <c r="G47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H47" s="3">
         <v>7200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
+      <c r="K47" s="3">
+        <v>100</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -2588,8 +2693,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2597,114 +2702,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E48" s="3">
         <v>846000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>850000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>855000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>756800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>745500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>737600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>396000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>388300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>380500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>352500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>327300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>324900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>326300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>319400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>314600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10499000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10492000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10515000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10583000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10563900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11418700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11338800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>8001500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8011700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7924300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7459100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7448500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7463200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7553200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7488200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7422600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>75000</v>
+      </c>
+      <c r="E52" s="3">
         <v>65000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>64000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>60000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>117600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>125100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>140200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>113000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>54000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>49800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>59300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>64600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18395000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18179000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16635000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18156000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16254700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>17702600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17797200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12389300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12197500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11804500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10394700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10112100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9975700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10316400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10187300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10037100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,326 +3140,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E57" s="3">
         <v>231000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>266000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>265000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>276600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>310400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>318600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>176000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>173600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>155900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>151700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>145000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>148800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>147100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>139000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>129500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>631000</v>
+        <v>627000</v>
       </c>
       <c r="E58" s="3">
         <v>631000</v>
       </c>
       <c r="F58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="G58" s="3">
         <v>431000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>429700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>380800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>748000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>375500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>375300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>375700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>369000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>368900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>369000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>264100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>264000</v>
       </c>
       <c r="R58" s="3">
         <v>264000</v>
       </c>
       <c r="S58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="T58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E59" s="3">
         <v>789000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>759000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2654000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>832400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>689400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>659600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>399700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>351400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>292100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>309500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>353200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>319600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>329700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>305400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1651000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1656000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3350000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1538800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1380600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1726200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>951300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>817200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>812800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>823400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>871000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>730700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>732600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>698900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19439000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19465000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>17989000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18003000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>16469200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16495900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16509200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>12507600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12501900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12516000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11365800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11378300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11393600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10828200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10839300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10555900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1242000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1195000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1102000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1131800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1136700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1044000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>597300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>603600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>569800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>525400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>510100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>662300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>653000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>654200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>656900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22367000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22362000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20844000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22459000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19149600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19023800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19288900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14056200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14005900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13903000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12704000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12711800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12926900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12211900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12226100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11911700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4359000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3972000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>319000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>119000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>260200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>145000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>374100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>171700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>228800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>217200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>196300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>258600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>437600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>169100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>155500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,61 +4421,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E83" s="3">
         <v>70000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>76200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>35400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>33900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>31000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>30600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>141000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>36900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>38000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E89" s="3">
         <v>397000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>161000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>433000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>247100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>315400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>453000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>329900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>331300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>237200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>160900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>292800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>788700</v>
-      </c>
-      <c r="P89" s="3">
-        <v>164700</v>
       </c>
       <c r="Q89" s="3">
         <v>164700</v>
       </c>
       <c r="R89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="S89" s="3">
         <v>225800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +4835,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-37000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>877000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>148400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-424600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-108900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-551200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-287000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-123600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-95500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4857,25 +5091,25 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-64000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-24300</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
@@ -4884,25 +5118,28 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-56100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,163 +5303,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1493000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1414000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3914800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1161600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-71000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-56900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-784700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3900</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1881000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2727000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-112100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>755900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>264300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>219600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>842400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>153100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>207300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-936400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-614600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,269 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1108000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1173000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1022000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1443000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1465000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1375600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1521000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2189200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>993300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1049400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>980700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>933100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>848000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3504300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>907700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>873200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>814000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E9" s="3">
         <v>613000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>512000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>622000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>663000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>582700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>711000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>942600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>423400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>445100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>404400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>396400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>370400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1495100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>383200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>377900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>352700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E10" s="3">
         <v>560000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>510000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>821000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>802000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>792900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>810000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1246600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>569900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>604300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>576300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>536700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>477600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2009200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>524500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>495300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>461300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="3">
         <v>29000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>12000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-18100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>135000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>53500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E15" s="3">
         <v>41000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>42000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>46000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>40000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>50000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>38000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>43100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>20000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>18700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>19200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>17500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>89200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>23600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>25500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>793000</v>
+      </c>
+      <c r="E17" s="3">
         <v>862000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>737000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>854000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>927000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>787200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1098000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1299100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>571500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>593900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>547500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>524000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>495000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2024500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>520000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>506900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>497000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>315000</v>
+      </c>
+      <c r="E18" s="3">
         <v>311000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>285000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>589000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>538000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>588400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>423000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>890100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>421800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>455500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>433200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>409100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>353100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1479800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>387700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>366300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>317000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-234000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-250000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-251000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-244000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-248000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-240000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-373200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-172000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-173600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-167600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-161900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-162100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-642400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-152600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-151300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-178100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E21" s="3">
         <v>149000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>105000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>410000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>363000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>418600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>254300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>593200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>285200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>316200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>299500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>278200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>221600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>978500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>272000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>249900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>177000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1441,8 +1481,8 @@
       <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
+      <c r="H22" s="3">
+        <v>1000</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1459,8 +1499,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1480,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E23" s="3">
         <v>76000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>337000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>293000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>340400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>183000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>516900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>249800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>281900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>265500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>247200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>191000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>837400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>235100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>215000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>138900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>59000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>42800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>55000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>118300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>208900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="3">
         <v>101000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>323000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>234000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>297600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>398700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>196000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>217400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>201800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>164900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>628500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>169100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>155500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>118900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>101000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>323000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>48000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>209700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>374100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>171700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>231000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>217400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>201800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>108800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>469300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>169100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>155500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,52 +1874,55 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-19000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-4000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>71000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>50400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>17000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>149900</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E32" s="3">
         <v>234000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>250000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>251000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>244000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>248000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>240000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>373200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>172000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>173600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>167600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>161900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>162100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>642400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>152600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>151300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>178100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>82000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>319000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>119000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>260200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>145000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>374100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>171700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>228800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>217200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>196300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>258600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>437600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>169100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>155500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>82000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>319000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>119000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>260200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>145000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>374100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>171700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>228800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>217200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>196300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>258600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>437600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>169100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>155500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4907000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4717000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4549000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2668000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4194000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1467500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2716800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2441300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2337300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2073000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1853400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1011000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>857900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>650600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>970600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>985400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>972400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,261 +2515,276 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E43" s="3">
         <v>756000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>765000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1039000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1068000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1111700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1206100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1207900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>674300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>704300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>658200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>645000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>556700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>636100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>606000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>574000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>512800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1284000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1283000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1344000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1313000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1294000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1232600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1413900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1453000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>838700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>805300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>815300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>767200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>743900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>730700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>743600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>725000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>715400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E45" s="3">
         <v>204000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>113000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>180000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>96000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1053400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>74400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>493200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>76300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>112900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>116200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>66900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>34900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7074000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6960000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6771000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6652000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4865200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5411200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5595500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3926600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3657300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3385400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2470100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2271300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2133600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2387000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2320400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2235400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>6000</v>
       </c>
       <c r="G47" s="3">
         <v>6000</v>
       </c>
       <c r="H47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I47" s="3">
         <v>7200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9600</v>
-      </c>
-      <c r="J47" s="3">
-        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>100</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
+      <c r="L47" s="3">
+        <v>100</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -2696,8 +2801,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2705,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E48" s="3">
         <v>855000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>846000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>850000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>855000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>756800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>745500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>737600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>396000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>388300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>380500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>352500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>327300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>324900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>326300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>319400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>314600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10531000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10499000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10492000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10515000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10583000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10563900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11418700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11338800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8001500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8011700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7924300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7459100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7448500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7463200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7553200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7488200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7422600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E52" s="3">
         <v>75000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>65000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>64000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>60000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>61600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>117600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>125100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>140200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>113000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>54000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>49800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>59300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>64600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18557000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18395000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18179000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16635000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18156000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16254700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>17702600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17797200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12389300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12197500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11804500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10394700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10112100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9975700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10316400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10187300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10037100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E57" s="3">
         <v>218000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>231000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>266000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>265000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>276600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>310400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>318600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>176000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>173600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>155900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>151700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>145000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>148800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>147100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>139000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>129500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="E58" s="3">
         <v>627000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>631000</v>
       </c>
       <c r="F58" s="3">
         <v>631000</v>
       </c>
       <c r="G58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="H58" s="3">
         <v>431000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>429700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>380800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>748000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>375500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>375300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>375700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>369000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>368900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>369000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>264100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>264000</v>
       </c>
       <c r="S58" s="3">
         <v>264000</v>
       </c>
       <c r="T58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="U58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E59" s="3">
         <v>771000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>789000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>759000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2654000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>832400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>689400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>659600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>399700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>351400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>309500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>353200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>319600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>329700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>305400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1563000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1616000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1651000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1656000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3350000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1538800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1380600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1726200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>951300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>817200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>812800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>823400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>871000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>730700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>732600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>698900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19468000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19439000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19465000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>17989000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18003000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>16469200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16495900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16509200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12507600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12501900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12516000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11365800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11378300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11393600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10828200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10839300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10555900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1247000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1308000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1242000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1195000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1102000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1131800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1136700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1044000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>597300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>603600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>569800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>525400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>510100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>662300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>653000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>654200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>656900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22285000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22367000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22362000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20844000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22459000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19149600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19023800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19288900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14056200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14005900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13903000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12704000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12711800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12926900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12211900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12226100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11911700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4314000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3728000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>82000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>319000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>119000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>260200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>145000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>374100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>171700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>228800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>217200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>196300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>258600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>437600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>169100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>155500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E83" s="3">
         <v>72000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>76200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>35400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>34300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>33900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>31000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>30600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>141000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>36900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E89" s="3">
         <v>222000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>397000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>161000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>433000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>247100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>315400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>453000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>329900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>237200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>160900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>292800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>788700</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>164700</v>
       </c>
       <c r="R89" s="3">
         <v>164700</v>
       </c>
       <c r="S89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="T89" s="3">
         <v>225800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-43000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-37000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>877000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>148400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-424600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-108900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-551200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-287000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-123600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-95500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,37 +5315,38 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-73000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-64000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-24300</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
@@ -5121,25 +5355,28 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-56100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1493000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1414000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3914800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-10400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1161600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-71000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-61000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-56900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-784700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3900</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E102" s="3">
         <v>168000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1881000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2727000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-112100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>755900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>264300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>219600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>842400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>153100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>207300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-936400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-14800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-614600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,281 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1108000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1173000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1022000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1443000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1465000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1375600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1521000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2189200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>993300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1049400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>980700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>933100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>848000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3504300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>907700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>873200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>814000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E9" s="3">
         <v>554000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>613000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>512000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>622000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>663000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>582700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>711000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>942600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>423400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>445100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>404400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>396400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>370400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1495100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>383200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>377900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>352700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E10" s="3">
         <v>554000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>560000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>510000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>821000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>802000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>792900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>810000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1246600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>569900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>604300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>576300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>536700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>477600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2009200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>524500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>495300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>461300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1083,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E14" s="3">
         <v>20000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>28000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-18100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>135000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>53500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E15" s="3">
         <v>29000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>41000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>42000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>46000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>40000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>50000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>38000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>43100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>20000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>18700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>19200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>17500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>89200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>23600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>25500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E17" s="3">
         <v>793000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>862000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>737000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>854000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>927000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>787200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1098000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1299100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>571500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>593900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>547500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>524000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>495000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2024500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>520000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>506900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>497000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E18" s="3">
         <v>315000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>311000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>285000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>589000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>538000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>588400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>423000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>890100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>421800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>455500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>433200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>409100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>353100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1479800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>387700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>366300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>317000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,131 +1378,138 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-261000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-234000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-250000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-251000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-244000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-248000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-240000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-373200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-172000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-173600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-167600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-161900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-162100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-642400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-152600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-151300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-178100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E21" s="3">
         <v>112000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>149000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>105000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>410000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>363000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>418600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>254300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>593200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>285200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>316200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>299500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>278200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>221600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>978500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>272000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>249900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>177000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
@@ -1484,8 +1523,8 @@
       <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+      <c r="I22" s="3">
+        <v>1000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1502,8 +1541,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1523,126 +1562,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E23" s="3">
         <v>53000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>76000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>337000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>293000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>340400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>183000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>516900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>249800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>281900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>265500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>247200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>191000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>837400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>235100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>215000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>138900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E24" s="3">
         <v>3000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>59000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>42800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>55000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>118300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>53700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>208900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>59500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E26" s="3">
         <v>50000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>101000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>323000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>234000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>297600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>398700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>196000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>231000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>217400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>201800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>164900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>628500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>169100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>155500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>118900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>101000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>323000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>209700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>128000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>374100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>171700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>231000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>217400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>201800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>108800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>469300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>169100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>155500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1886,46 +1946,46 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-19000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-4000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>71000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>50400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>17000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>149900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2120,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E32" s="3">
         <v>261000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>234000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>250000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>251000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>244000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>248000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>240000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>373200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>172000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>173600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>167600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>161900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>162100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>642400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>152600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>151300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>178100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>82000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>319000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>119000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>260200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>145000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>374100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>171700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>228800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>217200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>196300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>258600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>437600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>169100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>155500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>82000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>319000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>119000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>260200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>145000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>374100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>171700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>228800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>217200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>196300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>258600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>437600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>169100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>155500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4072000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4907000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4717000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4549000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2668000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4194000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1467500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2716800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2441300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2337300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2073000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1853400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1011000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>857900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>650600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>970600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>985400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>972400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,276 +2607,291 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>736000</v>
+      </c>
+      <c r="E43" s="3">
         <v>676000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>756000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>765000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1039000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1068000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1111700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1206100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1207900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>674300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>704300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>658200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>645000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>556700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>636100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>606000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>574000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>512800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1240000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1284000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1283000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1344000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1313000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1294000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1232600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1413900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1453000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>838700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>805300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>815300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>767200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>743900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>730700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>743600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>725000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>715400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E45" s="3">
         <v>207000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>204000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>113000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>180000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>96000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1053400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>74400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>493200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>76300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>58600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>112900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>116200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>34900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6358000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7074000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6960000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6771000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6652000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4865200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5411200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5595500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3926600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3657300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3385400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2470100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2271300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2133600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2387000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2320400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2235400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6000</v>
       </c>
       <c r="H47" s="3">
         <v>6000</v>
       </c>
       <c r="I47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J47" s="3">
         <v>7200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>9600</v>
-      </c>
-      <c r="K47" s="3">
-        <v>100</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
+      <c r="M47" s="3">
+        <v>100</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2804,8 +2908,8 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2813,126 +2917,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>897000</v>
+      </c>
+      <c r="E48" s="3">
         <v>870000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>855000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>846000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>850000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>855000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>756800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>745500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>737600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>396000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>388300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>380500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>352500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>327300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>324900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>326300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>319400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>314600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11439000</v>
+      </c>
+      <c r="E49" s="3">
         <v>10531000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10499000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10492000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10515000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10583000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10563900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11418700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11338800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8001500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8011700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7924300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7459100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7448500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7463200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7553200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7488200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7422600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E52" s="3">
         <v>80000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>75000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>65000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>64000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>60000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>61600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>117600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>125100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>140200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>113000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>54000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>49800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>59300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>64600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18739000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18557000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18395000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18179000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16635000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18156000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16254700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>17702600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17797200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12389300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12197500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11804500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10394700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10112100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9975700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10316400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10187300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10037100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3401,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E57" s="3">
         <v>197000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>218000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>231000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>266000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>265000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>276600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>310400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>318600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>176000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>173600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>155900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>151700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>145000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>148800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>147100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>139000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>129500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3340,58 +3473,61 @@
         <v>628000</v>
       </c>
       <c r="E58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="F58" s="3">
         <v>627000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>631000</v>
       </c>
       <c r="G58" s="3">
         <v>631000</v>
       </c>
       <c r="H58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="I58" s="3">
         <v>431000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>429700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>380800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>748000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>375500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>375300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>375700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>369000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>368900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>369000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>264100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>264000</v>
       </c>
       <c r="T58" s="3">
         <v>264000</v>
       </c>
       <c r="U58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="V58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3399,235 +3535,247 @@
         <v>738000</v>
       </c>
       <c r="E59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="F59" s="3">
         <v>771000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>789000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>759000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2654000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>832400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>689400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>659600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>399700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>351400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>285500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>292100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>309500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>353200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>319600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>329700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>305400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1580000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1563000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1616000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1651000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1656000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3350000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1538800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1380600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1726200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>951300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>817200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>812800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>823400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>871000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>730700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>732600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>698900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19501000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19468000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19439000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19465000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17989000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>18003000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>16469200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16495900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16509200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12507600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12501900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12516000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11365800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11378300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11393600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10828200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10839300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10555900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1247000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1308000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1242000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1195000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1102000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1131800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1136700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1044000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>597300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>603600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>569800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>525400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>510100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>662300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>653000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>654200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>656900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22267000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22285000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22367000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22362000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20844000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22459000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19149600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19023800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19288900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14056200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14005900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13903000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12704000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12711800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12926900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12211900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12226100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11911700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4215000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3528000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>82000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>319000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>119000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>260200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>145000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>374100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>171700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>228800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>217200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>196300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>258600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>437600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>169100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>155500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4818,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E83" s="3">
         <v>58000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>72000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>78200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>76200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>35400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>34300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>33900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>31000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>30600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>141000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>36900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>34900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>38000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E89" s="3">
         <v>274000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>222000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>397000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>161000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>433000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>247100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>315400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>453000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>329900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>237200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>160900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>292800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>788700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>164700</v>
       </c>
       <c r="S89" s="3">
         <v>164700</v>
       </c>
       <c r="T89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="U89" s="3">
         <v>225800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-43000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-923000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-43000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>877000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>148400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-424600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-108900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-551200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-287000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-123600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-95500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-51800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,40 +5548,41 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-73000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-64000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-24300</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
@@ -5358,25 +5591,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-56100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5794,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-60000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1493000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1414000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3914800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-10400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1161600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-61000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-56900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-784700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3900</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-835000</v>
+      </c>
+      <c r="E102" s="3">
         <v>190000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>168000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1881000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2727000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-112100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>755900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>264300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>219600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>842400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>153100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>207300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-936400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-14800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>13000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-614600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,293 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1218000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1194000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1108000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1173000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1022000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1443000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1465000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1375600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1521000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2189200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>993300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1049400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>980700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>933100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>848000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3504300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>907700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>873200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>814000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E9" s="3">
         <v>586000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>554000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>613000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>512000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>622000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>663000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>582700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>711000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>942600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>423400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>445100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>404400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>396400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>370400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1495100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>383200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>377900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>352700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>657000</v>
+      </c>
+      <c r="E10" s="3">
         <v>608000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>554000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>560000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>510000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>821000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>802000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>792900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>810000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1246600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>569900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>604300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>576300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>536700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>477600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2009200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>524500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>495300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>461300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +974,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1037,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,70 +1102,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E14" s="3">
         <v>43000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>20000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>12000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-18100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>135000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1157,61 +1179,64 @@
         <v>36000</v>
       </c>
       <c r="E15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F15" s="3">
         <v>29000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>41000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>42000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>46000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>40000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>50000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>38000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>43100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>20000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>18700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>19200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>17500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>89200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>23600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>25500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1256,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>716000</v>
+      </c>
+      <c r="E17" s="3">
         <v>824000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>793000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>862000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>737000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>854000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>927000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>787200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1098000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1299100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>571500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>593900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>547500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>524000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>495000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2024500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>520000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>506900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>497000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E18" s="3">
         <v>370000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>315000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>311000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>285000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>589000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>538000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>588400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>423000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>890100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>421800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>455500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>433200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>409100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>353100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1479800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>387700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>366300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>317000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,132 +1411,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-238000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-261000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-234000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-250000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-251000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-244000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-248000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-240000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-373200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-172000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-173600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-167600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-162100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-642400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-152600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-151300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-178100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E21" s="3">
         <v>198000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>112000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>149000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>105000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>410000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>363000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>418600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>254300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>593200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>285200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>316200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>299500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>278200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>221600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>978500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>272000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>249900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>177000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1512,7 +1551,7 @@
         <v>2000</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
         <v>1000</v>
@@ -1526,8 +1565,8 @@
       <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="J22" s="3">
+        <v>1000</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1544,8 +1583,8 @@
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1565,132 +1604,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E23" s="3">
         <v>130000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>53000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>76000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>337000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>293000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>340400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>516900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>249800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>281900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>265500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>247200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>191000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>837400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>235100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>215000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>138900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-25000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>59000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>42800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>118300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>53700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>45300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>208900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>59500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1799,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E26" s="3">
         <v>105000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>101000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>323000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>234000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>297600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>398700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>196000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>217400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>201800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>164900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>628500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>169100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>155500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>118900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E27" s="3">
         <v>104000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>101000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>323000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>48000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>209700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>374100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>171700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>231000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>217400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>201800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>108800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>469300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>169100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>155500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>22900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1994,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1949,46 +2009,46 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-19000</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-4000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>71000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>50400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>17000</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>149900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1999,8 +2059,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2124,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,132 +2189,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E32" s="3">
         <v>238000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>261000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>234000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>250000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>251000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>244000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>248000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>240000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>373200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>172000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>173600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>167600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>161900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>162100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>642400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>152600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>151300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>178100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E33" s="3">
         <v>104000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>319000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>119000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>260200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>374100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>171700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>228800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>217200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>196300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>258600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>437600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>169100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>155500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>22900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2384,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E35" s="3">
         <v>104000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>319000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>119000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>260200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>374100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>171700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>228800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>217200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>196300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>258600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>437600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>169100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>155500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>22900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2546,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2571,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4529000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4072000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4907000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4717000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4549000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2668000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4194000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1467500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2716800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2441300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2337300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2073000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1853400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1011000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>857900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>650600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>970600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>985400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>972400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,291 +2699,306 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>759000</v>
+      </c>
+      <c r="E43" s="3">
         <v>736000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>676000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>756000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>765000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1039000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1068000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1111700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1206100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1207900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>674300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>704300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>658200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>645000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>556700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>636100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>606000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>574000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>512800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1225000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1240000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1284000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1283000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1344000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1313000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1294000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1232600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1413900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1453000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>838700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>805300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>815300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>767200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>743900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>730700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>743600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>725000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>715400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E45" s="3">
         <v>310000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>207000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>204000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>113000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>180000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>96000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1053400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>74400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>493200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>76300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>112900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>116200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>66900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>34900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6723000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6358000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7074000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6960000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6771000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6652000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4865200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5411200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5595500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3926600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3657300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3385400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2470100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2271300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2133600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2387000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2320400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2235400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>6000</v>
       </c>
       <c r="I47" s="3">
         <v>6000</v>
       </c>
       <c r="J47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K47" s="3">
         <v>7200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9600</v>
-      </c>
-      <c r="L47" s="3">
-        <v>100</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
+      <c r="N47" s="3">
+        <v>100</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2911,8 +3015,8 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2920,132 +3024,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>875000</v>
+      </c>
+      <c r="E48" s="3">
         <v>897000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>870000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>855000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>846000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>850000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>855000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>756800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>745500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>737600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>396000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>388300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>380500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>352500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>327300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>324900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>326300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>319400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>314600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11429000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11439000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10531000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10499000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10492000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10515000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10583000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10563900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11418700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11338800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8001500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8011700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7924300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7459100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7448500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7463200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7553200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7488200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7422600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3219,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3284,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E52" s="3">
         <v>41000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>80000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>75000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>65000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>64000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>61600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>125100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>140200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>114300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>113000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>54000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>49800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>59300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>64600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3414,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19089000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18739000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18557000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18395000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18179000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16635000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18156000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16254700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17702600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17797200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12389300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12197500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11804500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10394700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10112100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9975700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10316400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10187300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10037100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3506,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,70 +3531,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E57" s="3">
         <v>214000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>197000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>218000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>266000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>265000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>276600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>310400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>318600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>176000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>173600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>155900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>151700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>145000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>148800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>147100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>139000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>129500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3476,306 +3609,321 @@
         <v>628000</v>
       </c>
       <c r="F58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="G58" s="3">
         <v>627000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>631000</v>
       </c>
       <c r="H58" s="3">
         <v>631000</v>
       </c>
       <c r="I58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="J58" s="3">
         <v>431000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>429700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>380800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>748000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>375500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>375300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>375700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>369000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>368900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>369000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>264100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>264000</v>
       </c>
       <c r="U58" s="3">
         <v>264000</v>
       </c>
       <c r="V58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="W58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>738000</v>
+        <v>802000</v>
       </c>
       <c r="E59" s="3">
         <v>738000</v>
       </c>
       <c r="F59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="G59" s="3">
         <v>771000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>789000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>759000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2654000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>832400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>689400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>659600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>399700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>351400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>285500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>292100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>309500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>353200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>319600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>329700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>305400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1580000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1563000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1616000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1651000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1656000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3350000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1538800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1380600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1726200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>951300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>900400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>817200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>812800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>823400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>871000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>730700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>732600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>698900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19483000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19501000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19468000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19439000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19465000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17989000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>18003000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>16469200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16495900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16509200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12507600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12501900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12516000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11365800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11378300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11393600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10828200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10839300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10555900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1102000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1179000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1247000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1308000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1242000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1195000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1102000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1131800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1136700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1044000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>597300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>603600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>569800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>525400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>510100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>662300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>653000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>654200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>656900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3984,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4049,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4114,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22227000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22267000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22285000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22367000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22362000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20844000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22459000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19149600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19023800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19288900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>14056200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14005900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13903000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>12704000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12711800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12926900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12211900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12226100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11911700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4206,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4269,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4334,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4232,8 +4399,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4464,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3906000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4594,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4659,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4724,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3138000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4854,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E81" s="3">
         <v>104000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>319000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>119000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>260200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>374100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>171700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>228800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>217200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>196300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>258600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>437600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>169100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>155500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>22900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,70 +5016,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E83" s="3">
         <v>66000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>58000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>72000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>76200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>35400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>34300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>33900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>31000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>30600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>141000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>36900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>34900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>38000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5144,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5209,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5274,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5339,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5404,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E89" s="3">
         <v>98000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>274000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>222000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>397000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>161000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>433000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>247100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>315400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>453000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>329900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>331300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>237200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>292800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>788700</v>
-      </c>
-      <c r="S89" s="3">
-        <v>164700</v>
       </c>
       <c r="T89" s="3">
         <v>164700</v>
       </c>
       <c r="U89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="V89" s="3">
         <v>225800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5496,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-43000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-71000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5624,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5689,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-923000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-43000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>877000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>148400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-424600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-108900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-551200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-287000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-123600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-95500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-51800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5781,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5558,34 +5791,34 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-73000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-64000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-24300</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -5594,25 +5827,28 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-56100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5909,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5974,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,190 +6039,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-60000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1493000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1414000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3914800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-10400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1161600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-61000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-56900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-784700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3900</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-835000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>190000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>168000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1881000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2727000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-112100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>755900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>264300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>219600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>842400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>153100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>207300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-936400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-14800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-614600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,306 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1279000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1218000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1194000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1108000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1173000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1022000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1443000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1465000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1375600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1521000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2189200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>993300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1049400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>980700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>933100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>848000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3504300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>907700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>873200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>814000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E9" s="3">
         <v>561000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>586000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>554000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>613000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>512000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>622000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>663000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>582700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>711000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>942600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>423400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>445100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>404400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>396400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>370400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1495100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>383200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>377900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>352700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E10" s="3">
         <v>657000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>608000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>554000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>560000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>510000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>821000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>802000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>792900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>810000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1246600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>569900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>604300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>576300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>536700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>477600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2009200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>524500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>495300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>461300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -975,8 +988,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1040,8 +1054,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1105,73 +1122,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-49000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>43000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>20000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>12000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-18100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>135000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>31100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,61 +1205,64 @@
         <v>36000</v>
       </c>
       <c r="F15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="G15" s="3">
         <v>29000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>41000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>42000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>46000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>50000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>38000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>20000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>18700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>19200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>17500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>89200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>23600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>25500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1257,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>745000</v>
+      </c>
+      <c r="E17" s="3">
         <v>716000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>824000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>793000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>862000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>737000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>854000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>927000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>787200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1098000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1299100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>571500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>593900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>547500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>524000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>495000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2024500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>520000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>506900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>497000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>534000</v>
+      </c>
+      <c r="E18" s="3">
         <v>502000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>370000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>315000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>311000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>285000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>589000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>538000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>588400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>423000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>890100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>421800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>455500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>433200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>409100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>353100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1479800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>387700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>366300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>317000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1412,138 +1445,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-245000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-256000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-238000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-261000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-234000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-250000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-251000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-244000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-248000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-240000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-373200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-172000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-173600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-167600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-161900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-162100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-642400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-152600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-151300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-178100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>354000</v>
+      </c>
+      <c r="E21" s="3">
         <v>310000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>198000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>112000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>149000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>105000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>410000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>363000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>418600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>254300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>593200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>285200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>316200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>299500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>278200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>221600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>978500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>272000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>249900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>177000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1554,7 +1594,7 @@
         <v>2000</v>
       </c>
       <c r="F22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
         <v>1000</v>
@@ -1568,8 +1608,8 @@
       <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>1000</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1586,8 +1626,8 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1607,138 +1647,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E23" s="3">
         <v>244000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>130000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>53000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>76000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>337000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>293000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>340400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>183000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>516900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>249800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>281900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>265500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>247200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>191000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>837400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>235100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>215000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>138900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-73000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-25000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>42800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>118300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>53700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>48200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>45300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>26100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>208900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>59500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1802,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E26" s="3">
         <v>317000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>105000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>323000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>234000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>297600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>398700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>196000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>217400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>201800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>164900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>628500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>169100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>155500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>118900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E27" s="3">
         <v>317000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>104000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>101000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>323000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>48000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>209700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>374100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>171700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>231000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>217400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>201800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>108800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>469300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>169100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>155500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>22900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1997,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2012,46 +2073,46 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-19000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-4000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>71000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>50400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>17000</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>149900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2062,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2127,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2192,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E32" s="3">
         <v>256000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>238000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>261000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>234000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>250000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>251000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>244000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>248000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>240000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>373200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>172000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>173600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>167600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>161900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>162100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>642400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>152600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>151300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>178100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E33" s="3">
         <v>317000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>104000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-23000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>82000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>319000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>119000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>260200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>374100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>171700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>228800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>217200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>196300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>258600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>437600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>169100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>155500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>22900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2387,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E35" s="3">
         <v>317000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>104000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-23000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>82000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>319000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>119000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>260200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>374100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>171700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>228800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>217200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>196300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>258600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>437600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>169100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>155500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>22900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2547,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2572,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4787000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4529000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4072000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4907000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4717000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4549000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2668000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4194000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1467500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2716800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2441300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2337300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2073000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1853400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1011000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>857900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>650600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>970600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>985400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>972400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2702,306 +2792,321 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>861000</v>
+      </c>
+      <c r="E43" s="3">
         <v>759000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>736000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>676000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>756000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>765000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1039000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1068000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1111700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1206100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1207900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>674300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>704300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>658200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>645000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>556700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>636100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>606000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>574000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>512800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1185000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1225000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1240000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1284000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1283000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1344000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1313000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1294000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1232600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1413900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1453000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>838700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>805300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>815300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>767200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>743900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>730700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>743600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>725000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>715400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E45" s="3">
         <v>210000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>310000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>207000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>204000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>113000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>180000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>96000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1053400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>74400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>493200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>76300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>46900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>116200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>36100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>34900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7030000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6723000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6358000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7074000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6960000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6771000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6652000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4865200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5411200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5595500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3926600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3657300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3385400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2470100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2271300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2133600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2387000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2320400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2235400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>6000</v>
       </c>
       <c r="J47" s="3">
         <v>6000</v>
       </c>
       <c r="K47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L47" s="3">
         <v>7200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9600</v>
-      </c>
-      <c r="M47" s="3">
-        <v>100</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
+      <c r="O47" s="3">
+        <v>100</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -3018,8 +3123,8 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3027,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>864000</v>
+      </c>
+      <c r="E48" s="3">
         <v>875000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>897000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>870000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>855000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>846000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>850000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>855000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>756800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>745500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>737600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>396000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>388300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>380500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>352500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>327300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>324900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>326300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>319400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>314600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11359000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11429000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11439000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10531000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10499000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10492000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10515000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10583000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10563900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11418700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11338800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8001500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8011700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7924300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7459100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7448500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7463200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7553200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7488200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7422600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3222,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3287,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E52" s="3">
         <v>59000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>41000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>80000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>65000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>64000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>60000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>61600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>117600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>125100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>140200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>114300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>113000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>65000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>54000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>49800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>59300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>64600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3417,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19315000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19089000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18739000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18557000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18395000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18179000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16635000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18156000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16254700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17702600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17797200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12389300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12197500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11804500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10394700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10112100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9975700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10316400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10187300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10037100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3507,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,73 +3662,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E57" s="3">
         <v>206000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>214000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>197000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>218000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>231000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>266000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>265000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>276600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>310400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>318600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>176000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>173600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>155900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>151700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>145000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>148800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>147100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>139000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>129500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3612,318 +3746,333 @@
         <v>628000</v>
       </c>
       <c r="G58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="H58" s="3">
         <v>627000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>631000</v>
       </c>
       <c r="I58" s="3">
         <v>631000</v>
       </c>
       <c r="J58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="K58" s="3">
         <v>431000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>429700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>380800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>748000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>375500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>375300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>375700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>369000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>368900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>369000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>264100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>264000</v>
       </c>
       <c r="V58" s="3">
         <v>264000</v>
       </c>
       <c r="W58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="X58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>808000</v>
+      </c>
+      <c r="E59" s="3">
         <v>802000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>738000</v>
       </c>
       <c r="F59" s="3">
         <v>738000</v>
       </c>
       <c r="G59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="H59" s="3">
         <v>771000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>789000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>759000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2654000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>832400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>689400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>659600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>399700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>351400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>285500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>292100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>309500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>353200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>319600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>329700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>305400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1663000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1636000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1580000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1563000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1616000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1651000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1656000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3350000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1538800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1380600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1726200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>951300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>817200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>812800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>823400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>871000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>730700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>732600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>698900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19470000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19483000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19501000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19468000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19439000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19465000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>17989000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>18003000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16469200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16495900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16509200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12507600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12501900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12516000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11365800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11378300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11393600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10828200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10839300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10555900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1102000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1179000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1247000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1308000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1242000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1195000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1102000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1131800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1136700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1044000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>597300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>603600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>569800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>525400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>510100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>662300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>653000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>654200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>656900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3987,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4052,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4117,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22231000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22227000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22267000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22285000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22367000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22362000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20844000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22459000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19149600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19023800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19288900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14056200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14005900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13903000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>12704000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12711800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12926900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12211900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12226100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>11911700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4207,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4272,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4337,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4402,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4467,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3705000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4597,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4662,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4727,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2916000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4857,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E81" s="3">
         <v>317000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>104000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-23000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>82000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>319000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>119000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>260200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>374100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>171700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>228800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>217200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>196300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>258600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>437600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>169100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>155500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>22900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5017,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E83" s="3">
         <v>64000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>58000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>72000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>70000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>78200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>76200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>35400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>34300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>33900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>31000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>30600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>141000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>36900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>38000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5147,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5212,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5277,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5342,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5407,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E89" s="3">
         <v>252000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>98000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>274000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>222000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>397000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>161000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>433000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>247100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>315400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>453000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>329900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>331300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>237200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>160900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>292800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>788700</v>
-      </c>
-      <c r="T89" s="3">
-        <v>164700</v>
       </c>
       <c r="U89" s="3">
         <v>164700</v>
       </c>
       <c r="V89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="W89" s="3">
         <v>225800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5497,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-37000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-71000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-16600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5627,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5692,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E94" s="3">
         <v>204000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-923000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-43000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>877000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>148400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-424600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-52500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-108900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-551200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-287000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-123600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-95500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5782,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5794,34 +6028,34 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-73000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-64000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-24300</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -5830,25 +6064,28 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-56100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5912,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5977,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6042,73 +6285,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-60000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1493000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1414000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3914800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-10400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1161600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-61000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-56900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-784700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6116,125 +6365,131 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3900</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E102" s="3">
         <v>457000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-835000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>190000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>168000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1881000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2727000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-112100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>755900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>264300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>219600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>842400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>153100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>207300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-936400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-14800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-614600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1279000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1218000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1194000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1108000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1173000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1022000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1443000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1465000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1375600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1521000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2189200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>993300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1049400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>980700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>933100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>848000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3504300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>907700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>873200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>814000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>533000</v>
+      </c>
+      <c r="E9" s="3">
         <v>547000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>561000</v>
       </c>
-      <c r="F9" s="3">
-        <v>586000</v>
-      </c>
       <c r="G9" s="3">
+        <v>579000</v>
+      </c>
+      <c r="H9" s="3">
         <v>554000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>613000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>512000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>622000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>663000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>582700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>711000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>942600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>423400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>445100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>404400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>396400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>370400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1495100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>383200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>377900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>352700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>661000</v>
+      </c>
+      <c r="E10" s="3">
         <v>732000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>657000</v>
       </c>
-      <c r="F10" s="3">
-        <v>608000</v>
-      </c>
       <c r="G10" s="3">
+        <v>615000</v>
+      </c>
+      <c r="H10" s="3">
         <v>554000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>560000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>510000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>821000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>802000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>792900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>810000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1246600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>569900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>604300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>576300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>536700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>477600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2009200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>524500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>495300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>461300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1125,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17000</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="3">
-        <v>-49000</v>
+        <v>9000</v>
       </c>
       <c r="F14" s="3">
-        <v>43000</v>
+        <v>-53000</v>
       </c>
       <c r="G14" s="3">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="H14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I14" s="3">
         <v>29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>12000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-18100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>135000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>53500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>31100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1208,61 +1231,64 @@
         <v>36000</v>
       </c>
       <c r="G15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="H15" s="3">
         <v>29000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>41000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>42000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>46000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>40000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>38000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>20000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>18700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>19200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>17500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>89200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>23600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>25500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>739000</v>
+      </c>
+      <c r="E17" s="3">
         <v>745000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>716000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>824000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>793000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>862000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>737000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>854000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>927000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>787200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1098000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1299100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>571500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>593900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>547500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>524000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>495000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2024500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>520000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>506900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>497000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E18" s="3">
         <v>534000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>502000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>370000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>315000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>311000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>285000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>589000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>538000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>588400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>423000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>890100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>421800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>455500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>433200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>409100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>353100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1479800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>387700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>366300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>317000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1446,144 +1479,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-245000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-256000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-238000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-261000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-234000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-250000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-251000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-244000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-248000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-240000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-373200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-172000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-173600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-167600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-161900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-162100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-642400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-152600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-151300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-178100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E21" s="3">
         <v>354000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>310000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>198000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>112000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>149000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>105000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>410000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>363000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>418600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>254300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>593200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>285200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>316200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>299500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>278200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>221600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>978500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>272000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>249900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>177000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1637,7 @@
         <v>2000</v>
       </c>
       <c r="G22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="3">
         <v>1000</v>
@@ -1611,8 +1651,8 @@
       <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>1000</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1629,8 +1669,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1650,144 +1690,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E23" s="3">
         <v>287000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>244000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>130000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>53000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>76000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>337000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>293000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>340400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>183000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>516900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>249800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>281900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>265500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>247200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>191000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>837400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>235100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>215000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>138900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E24" s="3">
         <v>79000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-73000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>25000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>118300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>53700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>48200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>45300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>26100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>208900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>59500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E26" s="3">
         <v>208000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>317000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>105000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>101000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>323000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>234000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>297600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>128000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>398700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>196000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>231000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>217400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>201800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>164900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>628500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>169100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>155500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>118900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E27" s="3">
         <v>209000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>317000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>104000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>101000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>323000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>48000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>209700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>374100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>171700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>231000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>217400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>201800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>108800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>469300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>169100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>155500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>22900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2058,13 +2116,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2076,46 +2137,46 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-19000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-4000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>71000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>50400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>17000</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-5600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>149900</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E32" s="3">
         <v>245000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>256000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>238000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>261000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>234000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>250000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>251000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>244000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>248000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>240000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>373200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>172000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>173600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>167600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>161900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>162100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>642400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>152600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>151300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>178100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E33" s="3">
         <v>209000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>317000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>104000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>82000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>319000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>119000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>260200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>374100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>171700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>228800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>217200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>196300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>258600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>437600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>169100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>155500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>22900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E35" s="3">
         <v>209000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>317000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>104000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>82000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>319000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>119000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>260200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>374100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>171700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>228800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>217200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>196300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>258600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>437600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>169100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>155500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>22900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4813000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4787000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4529000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4072000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4907000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4717000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4549000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2668000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4194000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1467500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2716800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2441300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2337300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2073000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1853400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1011000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>857900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>650600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>970600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>985400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>972400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,321 +2885,336 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E43" s="3">
         <v>861000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>759000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>736000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>676000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>756000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>765000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1039000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1068000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1111700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1206100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1207900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>674300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>704300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>658200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>645000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>556700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>636100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>606000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>574000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>512800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1215000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1185000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1225000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1240000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1284000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1283000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1344000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1313000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1294000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1232600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1413900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1453000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>838700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>805300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>815300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>767200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>743900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>730700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>743600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>725000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>715400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E45" s="3">
         <v>197000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>210000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>310000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>207000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>204000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>113000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>180000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>96000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1053400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>74400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>493200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>76300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>74700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>116200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>36100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>34900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6971000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7030000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6723000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6358000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7074000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6960000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6771000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6652000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4865200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5411200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5595500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3926600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3657300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3385400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2470100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2271300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2133600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2387000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2320400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2235400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="3">
         <v>2000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>5000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>6000</v>
       </c>
       <c r="K47" s="3">
         <v>6000</v>
       </c>
       <c r="L47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M47" s="3">
         <v>7200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9600</v>
-      </c>
-      <c r="N47" s="3">
-        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>8</v>
+      <c r="P47" s="3">
+        <v>100</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>8</v>
@@ -3126,8 +3231,8 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3135,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>883000</v>
+      </c>
+      <c r="E48" s="3">
         <v>864000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>875000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>897000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>870000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>855000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>846000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>850000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>855000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>756800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>745500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>737600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>396000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>388300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>380500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>352500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>327300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>324900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>326300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>319400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>314600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11320000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11359000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11429000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11439000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10531000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10499000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10492000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10515000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10583000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10563900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11418700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11338800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8001500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8011700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7924300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7459100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7448500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7463200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7553200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7488200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7422600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E52" s="3">
         <v>60000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>59000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>41000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>80000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>65000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>61600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>117600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>125100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>140200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>114300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>113000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>65000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>54000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>49800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>59300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>64600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19242000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19315000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19089000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18739000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18557000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18395000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18179000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16635000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18156000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16254700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17702600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17797200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12389300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12197500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11804500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10394700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10112100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9975700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10316400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10187300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10037100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,81 +3793,85 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E57" s="3">
         <v>227000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>206000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>214000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>197000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>218000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>231000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>266000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>265000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>276600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>310400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>318600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>176000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>173600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>155900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>151700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>145000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>148800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>147100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>139000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>129500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>628000</v>
+        <v>428000</v>
       </c>
       <c r="E58" s="3">
         <v>628000</v>
@@ -3749,330 +3883,345 @@
         <v>628000</v>
       </c>
       <c r="H58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="I58" s="3">
         <v>627000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>631000</v>
       </c>
       <c r="J58" s="3">
         <v>631000</v>
       </c>
       <c r="K58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="L58" s="3">
         <v>431000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>429700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>380800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>748000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>375500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>375300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>375700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>369000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>368900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>369000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>264100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>264000</v>
       </c>
       <c r="W58" s="3">
         <v>264000</v>
       </c>
       <c r="X58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="Y58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E59" s="3">
         <v>808000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>802000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>738000</v>
       </c>
       <c r="G59" s="3">
         <v>738000</v>
       </c>
       <c r="H59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="I59" s="3">
         <v>771000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>789000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>759000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2654000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>832400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>689400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>659600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>399700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>351400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>285500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>292100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>309500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>353200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>319600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>329700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>305400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1378000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1663000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1636000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1580000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1563000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1616000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1651000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1656000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3350000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1538800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1380600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1726200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>951300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>817200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>812800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>823400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>871000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>730700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>732600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>698900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19514000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19470000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19483000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19501000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19468000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19439000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19465000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>17989000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18003000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16469200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16495900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16509200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12507600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12501900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12516000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11365800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11378300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11393600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10828200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10839300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10555900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>976000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1092000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1102000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1179000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1247000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1308000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1242000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1195000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1102000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1131800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1136700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1044000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>597300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>603600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>569800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>525400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>510100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>662300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>653000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>654200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>656900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21875000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22231000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22227000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22267000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22285000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22367000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22362000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20844000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22459000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19149600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19023800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19288900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14056200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14005900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13903000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>12704000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12711800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12926900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12211900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12226100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>11911700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3545000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2633000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E81" s="3">
         <v>209000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>317000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>104000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>82000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>319000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>119000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>260200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>374100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>171700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>228800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>217200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>196300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>258600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>437600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>169100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>155500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>22900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5225,67 +5424,70 @@
         <v>65000</v>
       </c>
       <c r="E83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F83" s="3">
         <v>64000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>66000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>58000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>72000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>70000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>78200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>71300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>76200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>35400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>34300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>33900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>31000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>30600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>141000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>36900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>38000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E89" s="3">
         <v>289000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>252000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>98000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>274000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>222000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>397000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>161000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>433000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>247100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>315400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>453000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>329900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>331300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>237200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>160900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>292800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>788700</v>
-      </c>
-      <c r="U89" s="3">
-        <v>164700</v>
       </c>
       <c r="V89" s="3">
         <v>164700</v>
       </c>
       <c r="W89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="X89" s="3">
         <v>225800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5727,67 +5948,70 @@
         <v>-25000</v>
       </c>
       <c r="E91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-37000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-71000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-16600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-37000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>204000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-923000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-43000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>877000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>148400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-424600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-52500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-108900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-551200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-287000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-123600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-95500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-51800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,13 +6249,14 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-46000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6031,34 +6265,34 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-73000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-64000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-24300</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -6067,25 +6301,28 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-56100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-225000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-60000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1493000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1414000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3914800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1161600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-71000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-61000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-56900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-784700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3900</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E102" s="3">
         <v>258000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>457000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-835000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>190000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>168000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1881000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2727000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-112100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>755900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>264300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>219600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>842400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>153100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>207300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-936400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-14800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>13000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-614600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,331 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1327000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1194000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1279000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1218000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1194000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1108000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1173000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1022000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1443000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1465000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1375600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1521000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2189200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>993300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1049400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>980700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>933100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>848000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3504300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>907700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>873200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>814000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E9" s="3">
         <v>533000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>547000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>561000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>579000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>554000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>613000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>512000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>622000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>663000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>582700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>711000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>942600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>423400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>445100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>404400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>396400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>370400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1495100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>383200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>377900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>352700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E10" s="3">
         <v>661000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>732000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>657000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>615000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>554000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>560000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>510000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>821000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>802000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>792900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>810000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1246600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>569900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>604300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>576300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>536700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>477600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2009200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>524500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>495300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>461300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1015,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,84 +1161,90 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>9000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-53000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>29000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-18100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>135000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>31100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="E15" s="3">
         <v>36000</v>
@@ -1234,61 +1256,64 @@
         <v>36000</v>
       </c>
       <c r="H15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="I15" s="3">
         <v>29000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>41000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>42000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>40000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>50000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>38000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>43100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>20000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>18700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>19200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>17500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>89200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>23600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>22100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>25500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1336,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>807000</v>
+      </c>
+      <c r="E17" s="3">
         <v>739000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>745000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>716000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>824000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>793000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>862000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>737000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>854000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>927000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>787200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1098000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1299100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>571500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>593900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>547500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>524000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>495000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2024500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>520000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>506900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>497000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>520000</v>
+      </c>
+      <c r="E18" s="3">
         <v>455000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>534000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>502000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>370000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>315000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>311000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>285000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>589000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>538000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>588400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>423000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>890100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>421800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>455500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>433200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>409100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>353100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1479800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>387700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>366300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>317000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,150 +1512,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-258000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-260000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-245000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-256000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-238000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-261000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-234000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-250000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-251000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-244000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-248000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-240000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-373200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-172000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-173600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-167600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-161900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-162100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-642400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-152600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-151300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-178100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>324000</v>
+      </c>
+      <c r="E21" s="3">
         <v>260000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>354000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>310000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>198000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>112000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>149000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>105000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>410000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>363000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>418600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>254300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>593200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>285200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>316200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>299500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>278200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>221600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>978500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>272000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>249900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>177000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1640,7 +1679,7 @@
         <v>2000</v>
       </c>
       <c r="H22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="3">
         <v>1000</v>
@@ -1654,8 +1693,8 @@
       <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>1000</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1672,8 +1711,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1693,150 +1732,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E23" s="3">
         <v>193000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>287000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>130000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>53000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>76000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>337000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>293000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>340400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>183000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>516900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>249800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>281900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>265500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>247200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>191000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>837400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>235100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>215000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>138900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E24" s="3">
         <v>30000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>79000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-73000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>25000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>118300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>53700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>45300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>26100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>208900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>66000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>59500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1954,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E26" s="3">
         <v>163000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>208000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>317000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>105000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>101000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>323000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>234000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>297600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>128000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>398700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>196000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>231000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>217400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>201800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>164900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>628500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>169100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>155500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>118900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E27" s="3">
         <v>116000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>209000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>317000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>104000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>101000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>323000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>48000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>209700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>128000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>374100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>171700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>231000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>217400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>201800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>108800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>469300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>169100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>155500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>22900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,17 +2176,20 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -2140,46 +2200,46 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-19000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>71000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>50400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>17000</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-5600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>149900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2190,8 +2250,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2324,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2398,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E32" s="3">
         <v>260000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>245000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>256000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>238000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>261000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>234000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>250000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>251000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>244000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>248000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>240000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>373200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>172000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>173600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>167600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>161900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>162100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>642400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>152600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>151300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>178100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E33" s="3">
         <v>117000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>209000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>317000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>104000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>82000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>319000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>119000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>260200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>145000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>374100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>171700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>228800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>217200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>196300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>258600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>437600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>169100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>155500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>22900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2620,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E35" s="3">
         <v>117000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>209000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>317000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>104000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>82000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>319000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>119000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>260200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>145000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>374100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>171700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>228800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>217200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>196300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>258600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>437600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>169100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>155500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>22900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2803,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2831,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4216000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4813000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4787000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4529000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4072000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4907000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4717000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4549000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2668000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4194000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1467500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2716800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2441300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2337300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2073000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1853400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1011000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>857900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>650600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>970600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>985400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>972400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,292 +2977,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>890000</v>
+      </c>
+      <c r="E43" s="3">
         <v>751000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>861000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>759000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>736000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>676000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>756000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>765000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1039000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1068000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1111700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1206100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1207900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>674300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>704300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>658200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>645000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>556700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>636100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>606000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>574000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>512800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1242000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1215000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1185000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1225000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1240000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1284000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1283000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1344000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1313000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1294000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1232600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1413900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1453000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>838700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>805300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>815300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>767200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>743900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>730700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>743600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>725000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>715400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>216000</v>
+      </c>
+      <c r="E45" s="3">
         <v>192000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>197000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>210000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>310000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>207000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>204000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>113000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>180000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1053400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>74400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>493200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>76300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>74700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>46900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>116200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>66900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>36100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>34900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6564000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6971000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7030000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6723000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6358000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7074000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6960000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6771000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6652000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4865200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5411200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5595500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3926600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3657300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3385400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2470100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2271300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2133600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2387000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2320400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2235400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3181,43 +3285,43 @@
         <v>1000</v>
       </c>
       <c r="E47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>5000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>6000</v>
       </c>
       <c r="L47" s="3">
         <v>6000</v>
       </c>
       <c r="M47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N47" s="3">
         <v>7200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9600</v>
-      </c>
-      <c r="O47" s="3">
-        <v>100</v>
       </c>
       <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>100</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
@@ -3234,8 +3338,8 @@
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3243,150 +3347,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E48" s="3">
         <v>883000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>864000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>875000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>897000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>870000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>855000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>846000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>850000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>855000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>756800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>745500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>737600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>396000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>388300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>380500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>352500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>327300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>324900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>326300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>319400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>314600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11253000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11320000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11359000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11429000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11439000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>10531000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10499000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10492000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10515000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10583000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10563900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11418700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11338800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8001500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8011700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7924300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7459100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7448500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7463200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7553200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7488200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7422600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3569,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3643,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E52" s="3">
         <v>67000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>60000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>59000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>41000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>80000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>75000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>65000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>61600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>117600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>125100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>140200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>114300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>113000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>54000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>49800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>59300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>64600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3791,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18841000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19242000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19315000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19089000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18739000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18557000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18395000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18179000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16635000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18156000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16254700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17702600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17797200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12389300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12197500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11804500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10394700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10112100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9975700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10316400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10187300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10037100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3895,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,87 +3923,91 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E57" s="3">
         <v>212000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>227000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>206000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>214000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>197000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>218000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>231000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>266000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>265000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>276600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>310400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>318600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>176000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>173600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>155900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>151700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>145000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>148800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>147100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>139000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>129500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>429000</v>
+      </c>
+      <c r="E58" s="3">
         <v>428000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>628000</v>
       </c>
       <c r="F58" s="3">
         <v>628000</v>
@@ -3886,342 +4019,357 @@
         <v>628000</v>
       </c>
       <c r="I58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="J58" s="3">
         <v>627000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>631000</v>
       </c>
       <c r="K58" s="3">
         <v>631000</v>
       </c>
       <c r="L58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="M58" s="3">
         <v>431000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>429700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>380800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>748000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>375500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>375300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>375700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>369000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>368900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>369000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>264100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>264000</v>
       </c>
       <c r="X58" s="3">
         <v>264000</v>
       </c>
       <c r="Y58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>634000</v>
+      </c>
+      <c r="E59" s="3">
         <v>738000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>808000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>802000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>738000</v>
       </c>
       <c r="H59" s="3">
         <v>738000</v>
       </c>
       <c r="I59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="J59" s="3">
         <v>771000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>789000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>759000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2654000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>832400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>689400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>659600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>399700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>351400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>285500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>292100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>309500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>353200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>319600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>329700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>305400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1301000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1378000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1663000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1636000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1580000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1563000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1616000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1651000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1656000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3350000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1538800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1380600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1726200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>951300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>817200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>812800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>823400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>871000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>730700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>732600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>698900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19394000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19514000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19470000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19483000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19501000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19468000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19439000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19465000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17989000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18003000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16469200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16495900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16509200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12507600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12501900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12516000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11365800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11378300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11393600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10828200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10839300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10555900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E62" s="3">
         <v>976000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1092000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1102000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1179000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1247000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1308000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1242000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1195000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1102000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1131800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1136700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1044000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>597300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>603600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>569800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>525400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>510100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>662300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>653000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>654200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>656900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4439,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4513,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4587,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21740000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21875000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22231000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22227000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22267000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22285000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22367000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22362000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20844000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22459000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19149600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19023800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19288900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14056200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14005900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>13903000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12704000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12711800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12926900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12211900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12226100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>11911700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4691,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4763,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4837,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4911,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4985,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3350000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3545000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5133,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5207,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5281,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2899000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2633000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5429,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E81" s="3">
         <v>117000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>209000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>317000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>104000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>82000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>319000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>119000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>260200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>145000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>374100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>171700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>228800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>217200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>196300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>258600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>437600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>169100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>155500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>22900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5612,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65000</v>
+        <v>62000</v>
       </c>
       <c r="E83" s="3">
         <v>65000</v>
       </c>
       <c r="F83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G83" s="3">
         <v>64000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>66000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>58000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>72000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>78200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>35400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>34300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>33900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>31000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>30600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>141000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>36900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>38000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5758,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5832,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5906,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5980,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6054,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E89" s="3">
         <v>279000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>289000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>252000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>98000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>274000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>222000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>397000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>161000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>433000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>247100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>315400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>453000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>329900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>331300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>237200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>160900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>292800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>788700</v>
-      </c>
-      <c r="V89" s="3">
-        <v>164700</v>
       </c>
       <c r="W89" s="3">
         <v>164700</v>
       </c>
       <c r="X89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="Y89" s="3">
         <v>225800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6158,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25000</v>
+        <v>-32000</v>
       </c>
       <c r="E91" s="3">
         <v>-25000</v>
       </c>
       <c r="F91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-20000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-43000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-71000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-16600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-21800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6304,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6378,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-25000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-37000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>204000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-923000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-43000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>877000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>148400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-424600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-52500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-108900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-551200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-287000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-123600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-95500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-51800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,17 +6482,18 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-46000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -6268,34 +6501,34 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-73000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-64000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-24300</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -6304,25 +6537,28 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-56100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6628,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6702,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6776,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-647000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-225000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-60000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1493000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1414000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3914800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1161600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-71000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-61000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-56900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-784700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2000</v>
       </c>
       <c r="F101" s="3">
         <v>2000</v>
       </c>
       <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>5000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="E102" s="3">
         <v>26000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>258000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>457000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-835000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>190000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>168000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1881000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2727000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-112100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>755900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>264300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>219600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>842400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>153100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>207300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-936400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-14800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>13000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-614600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,331 +665,343 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1327000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1194000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1279000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1218000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1194000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1108000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1173000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1022000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1443000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1465000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1375600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1521000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2189200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>993300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1049400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>980700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>933100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>848000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3504300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>907700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>873200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>814000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>579100</v>
+      </c>
+      <c r="E9" s="3">
         <v>590000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>533000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>547000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>561000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>579000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>554000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>613000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>512000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>622000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>663000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>582700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>711000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>942600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>423400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>445100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>404400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>396400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>370400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1495100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>383200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>377900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>352700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>818900</v>
+      </c>
+      <c r="E10" s="3">
         <v>737000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>661000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>732000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>657000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>615000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>554000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>560000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>510000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>821000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>802000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>792900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>810000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1246600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>569900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>604300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>576300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>536700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>477600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2009200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>524500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>495300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>461300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1028,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1090,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1164,82 +1180,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>9000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-53000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>29000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-18100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>135000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>31100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>33000</v>
       </c>
       <c r="E15" s="3">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="F15" s="3">
         <v>36000</v>
@@ -1259,61 +1281,64 @@
         <v>36000</v>
       </c>
       <c r="I15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="J15" s="3">
         <v>29000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>41000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>42000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>46000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>50000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>38000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>43100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>20000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>18700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>19200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>17500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>17100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>89200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>23600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>22100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>25500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1337,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E17" s="3">
         <v>807000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>739000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>745000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>716000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>824000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>793000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>862000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>737000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>854000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>927000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>787200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1098000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1299100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>571500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>593900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>547500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>524000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>495000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2024500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>520000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>506900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>497000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>602000</v>
+      </c>
+      <c r="E18" s="3">
         <v>520000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>455000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>534000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>502000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>370000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>315000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>311000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>285000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>589000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>538000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>588400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>423000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>890100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>421800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>455500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>433200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>409100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>353100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1479800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>387700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>366300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>317000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1513,161 +1545,168 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-287000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-258000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-260000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-245000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-256000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-238000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-261000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-234000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-250000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-251000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-244000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-248000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-240000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-373200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-172000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-173600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-167600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-161900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-162100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-642400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-152600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-151300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-178100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E21" s="3">
         <v>324000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>260000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>354000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>310000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>198000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>112000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>149000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>105000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>410000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>363000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>418600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>254300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>593200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>285200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>316200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>299500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>278200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>221600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>978500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>272000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>249900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>177000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E22" s="3">
         <v>2000</v>
@@ -1682,7 +1721,7 @@
         <v>2000</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="J22" s="3">
         <v>1000</v>
@@ -1696,8 +1735,8 @@
       <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
+      <c r="N22" s="3">
+        <v>1000</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
@@ -1714,8 +1753,8 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1735,156 +1774,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>312000</v>
+      </c>
+      <c r="E23" s="3">
         <v>260000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>193000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>287000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>130000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>53000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>76000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>337000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>293000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>340400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>183000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>516900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>249800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>281900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>265500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>247200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>191000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>837400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>235100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>215000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>138900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E24" s="3">
         <v>61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>30000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>79000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-73000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>118300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>48200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>45300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>26100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>208900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>66000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>59500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1957,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>239000</v>
+      </c>
+      <c r="E26" s="3">
         <v>199000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>163000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>208000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>317000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>105000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>101000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>323000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>234000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>297600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>128000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>398700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>196000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>231000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>217400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>201800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>164900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>628500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>169100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>155500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>118900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E27" s="3">
         <v>199000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>116000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>209000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>317000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>104000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>101000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>323000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>48000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>209700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>128000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>374100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>171700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>231000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>217400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>201800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>108800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>469300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>169100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>155500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>22900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2179,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2188,11 +2248,11 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>1000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -2203,46 +2263,46 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-19000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-4000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>71000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>50400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>17000</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-5600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>149900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2253,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2401,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E32" s="3">
         <v>258000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>260000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>245000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>256000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>238000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>261000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>234000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>250000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>251000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>244000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>248000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>240000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>373200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>172000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>173600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>167600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>161900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>162100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>642400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>152600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>151300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>178100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E33" s="3">
         <v>199000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>117000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>209000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>317000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>104000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-23000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>82000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>319000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>119000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>260200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>145000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>374100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>171700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>228800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>217200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>196300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>258600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>437600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>169100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>155500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>22900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2623,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E35" s="3">
         <v>199000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>117000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>209000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>317000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>104000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-23000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>82000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>319000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>119000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>260200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>145000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>374100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>171700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>228800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>217200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>196300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>258600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>437600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>169100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>155500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>22900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2804,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2832,82 +2917,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3808000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4216000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4813000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4787000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4529000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4072000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4907000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4717000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4549000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2668000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4194000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1467500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2716800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2441300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2337300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2073000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1853400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1011000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>857900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>650600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>970600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>985400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>972400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2980,304 +3069,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>990000</v>
+      </c>
+      <c r="E43" s="3">
         <v>890000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>751000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>861000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>759000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>736000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>676000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>756000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>765000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1039000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1068000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1111700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1206100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1207900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>674300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>704300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>658200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>645000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>556700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>636100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>606000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>574000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>512800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1242000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1215000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1185000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1225000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1240000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1284000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1283000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1344000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1313000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1294000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1232600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1413900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1453000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>838700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>805300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>815300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>767200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>743900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>730700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>743600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>725000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>715400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E45" s="3">
         <v>216000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>192000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>197000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>210000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>310000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>207000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>204000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>113000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>180000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1053400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>74400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>493200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>76300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>46900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>112900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>116200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>66900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>36100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>34900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6308000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6564000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6971000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7030000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6723000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6358000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7074000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6960000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6771000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6652000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4865200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5411200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5595500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3926600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3657300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3385400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2470100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2271300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2133600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2387000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2320400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2235400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3288,43 +3392,43 @@
         <v>1000</v>
       </c>
       <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="3">
         <v>2000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>3000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>6000</v>
       </c>
       <c r="M47" s="3">
         <v>6000</v>
       </c>
       <c r="N47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O47" s="3">
         <v>7200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9600</v>
-      </c>
-      <c r="P47" s="3">
-        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
+      <c r="R47" s="3">
+        <v>100</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -3341,8 +3445,8 @@
       <c r="W47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3350,156 +3454,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>903000</v>
+      </c>
+      <c r="E48" s="3">
         <v>898000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>883000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>864000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>875000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>897000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>870000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>855000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>846000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>850000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>855000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>756800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>745500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>737600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>396000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>388300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>380500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>352500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>327300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>324900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>326300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>319400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>314600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11499000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11253000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11320000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11359000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11429000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11439000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>10531000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>10499000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10492000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10515000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10583000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10563900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>11418700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>11338800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8001500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8011700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7924300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7459100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7448500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7463200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7553200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7488200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7422600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3572,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3646,82 +3762,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E52" s="3">
         <v>125000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>67000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>60000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>59000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>41000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>80000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>75000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>65000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>64000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>61600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>117600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>125100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>65100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>140200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>114300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>113000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>54000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>49800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>59300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>64600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3794,82 +3916,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18819000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18841000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19242000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19315000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19089000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18739000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18557000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18395000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18179000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16635000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18156000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16254700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17702600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17797200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12389300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12197500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11804500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10394700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10112100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9975700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10316400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10187300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10037100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3896,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3924,82 +4053,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E57" s="3">
         <v>238000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>212000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>227000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>206000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>214000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>197000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>218000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>266000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>265000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>276600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>310400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>318600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>176000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>173600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>155900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>151700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>145000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>148800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>147100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>139000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>129500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4007,10 +4140,10 @@
         <v>429000</v>
       </c>
       <c r="E58" s="3">
+        <v>429000</v>
+      </c>
+      <c r="F58" s="3">
         <v>428000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>628000</v>
       </c>
       <c r="G58" s="3">
         <v>628000</v>
@@ -4022,354 +4155,369 @@
         <v>628000</v>
       </c>
       <c r="J58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="K58" s="3">
         <v>627000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>631000</v>
       </c>
       <c r="L58" s="3">
         <v>631000</v>
       </c>
       <c r="M58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="N58" s="3">
         <v>431000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>429700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>380800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>748000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>375500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>375300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>375700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>369000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>368900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>369000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>264100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>264000</v>
       </c>
       <c r="Y58" s="3">
         <v>264000</v>
       </c>
       <c r="Z58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="AA58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>667000</v>
+      </c>
+      <c r="E59" s="3">
         <v>634000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>738000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>808000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>802000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>738000</v>
       </c>
       <c r="I59" s="3">
         <v>738000</v>
       </c>
       <c r="J59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="K59" s="3">
         <v>771000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>789000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>759000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2654000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>832400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>689400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>659600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>399700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>351400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>285500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>292100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>309500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>353200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>319600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>329700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>305400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1301000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1378000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1663000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1636000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1580000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1563000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1616000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1651000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1656000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3350000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1538800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1380600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1726200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>951300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>900400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>817200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>812800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>823400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>871000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>730700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>732600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>698900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19526000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19394000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19514000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19470000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19483000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19501000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19468000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19439000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19465000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17989000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18003000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16469200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16495900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16509200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12507600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12501900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12516000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11365800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11378300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11393600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>10828200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>10839300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10555900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>917000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1039000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>976000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1092000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1102000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1179000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1247000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1308000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1242000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1195000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1102000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1131800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1136700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1044000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>597300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>603600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>569800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>525400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>510100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>662300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>653000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>654200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>656900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4442,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4516,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4590,82 +4744,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21795000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21740000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21875000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22231000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22227000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22267000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22285000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22367000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22362000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20844000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22459000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19149600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19023800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19288900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>14056200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14005900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>13903000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12704000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>12711800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>12926900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12211900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12226100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>11911700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4692,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4766,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4840,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4914,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4988,82 +5158,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3114000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3350000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3545000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5136,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5210,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5284,82 +5466,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2976000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2899000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2633000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5432,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E81" s="3">
         <v>199000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>117000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>209000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>317000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>104000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-23000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>82000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>319000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>119000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>260200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>145000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>374100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>171700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>228800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>217200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>196300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>258600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>437600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>169100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>155500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>22900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5613,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E83" s="3">
         <v>62000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>65000</v>
       </c>
       <c r="F83" s="3">
         <v>65000</v>
       </c>
       <c r="G83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="H83" s="3">
         <v>64000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>58000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>70000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>69000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>78200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>76200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>35400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>34300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>33900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>31000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>30600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>141000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>36900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>34900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>38000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5761,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5835,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5909,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5983,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6057,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E89" s="3">
         <v>87000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>279000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>289000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>252000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>98000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>274000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>222000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>161000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>433000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>247100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>315400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>453000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>329900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>331300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>237200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>160900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>292800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>788700</v>
-      </c>
-      <c r="W89" s="3">
-        <v>164700</v>
       </c>
       <c r="X89" s="3">
         <v>164700</v>
       </c>
       <c r="Y89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="Z89" s="3">
         <v>225800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6159,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-25000</v>
       </c>
       <c r="F91" s="3">
         <v>-25000</v>
       </c>
       <c r="G91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="H91" s="3">
         <v>-20000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-43000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-19200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-71000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-21800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6307,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6381,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-25000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-37000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>204000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-923000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-43000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>877000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>148400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-424600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-52500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-108900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-551200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-287000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-123600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-95500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-51800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6483,8 +6715,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6492,11 +6725,11 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-46000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -6504,34 +6737,34 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-73000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-64000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-24300</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -6540,25 +6773,28 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-56100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6631,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6705,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6779,226 +7021,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-244000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-647000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-225000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-60000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1493000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1414000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3914800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-10400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1161600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-71000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-61000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-56900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-784700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F101" s="3">
-        <v>2000</v>
       </c>
       <c r="G101" s="3">
         <v>2000</v>
       </c>
       <c r="H101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3900</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-597000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>258000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>457000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-835000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>190000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>168000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1881000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2727000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-112100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>755900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>264300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>219600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>842400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>153100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>207300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-936400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-14800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>13000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-614600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,368 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1398000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1327000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1194000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1279000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1218000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1194000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1108000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1173000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1022000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1443000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1465000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1375600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1521000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2189200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>993300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1049400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>980700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>933100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>848000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3504300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>907700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>873200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>814000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>620300</v>
+      </c>
+      <c r="F9" s="3">
         <v>579100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>590000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>533000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>547000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>561000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>579000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>554000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>613000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>512000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>622000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>663000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>582700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>711000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>942600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>423400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>445100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>404400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>396400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>370400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1495100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>383200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>377900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>352700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>798000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>889700</v>
+      </c>
+      <c r="F10" s="3">
         <v>818900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>737000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>661000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>732000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>657000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>615000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>554000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>560000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>510000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>821000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>802000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>792900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>810000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1246600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>569900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>604300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>576300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>536700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>477600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2009200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>524500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>495300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>461300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1054,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,8 +1133,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,99 +1216,111 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>9000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-53000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>22000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>12000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>28000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-18100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>135000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>53500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>11800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>12000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>14600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>4500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>31100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>6200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>8100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>18600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F15" s="3">
         <v>33000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>33000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>36000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>36000</v>
       </c>
       <c r="H15" s="3">
         <v>36000</v>
@@ -1284,61 +1329,67 @@
         <v>36000</v>
       </c>
       <c r="J15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="L15" s="3">
         <v>29000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>41000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>42000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>46000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>40000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>50000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>38000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>43100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>20000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>18700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>19200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>17500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>17100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>89200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>23600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>22100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>25500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1414,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>811000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>869000</v>
+      </c>
+      <c r="F17" s="3">
         <v>796000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>807000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>739000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>745000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>716000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>824000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>793000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>862000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>737000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>854000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>927000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>787200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1098000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1299100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>571500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>593900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>547500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>524000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>495000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2024500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>520000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>506900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>497000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>586000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>641000</v>
+      </c>
+      <c r="F18" s="3">
         <v>602000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>520000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>455000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>534000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>502000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>370000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>315000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>311000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>285000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>589000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>538000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>588400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>423000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>890100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>421800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>455500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>433200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>409100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>353100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1479800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>387700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>366300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>317000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,173 +1611,187 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-282000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-287000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-258000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-260000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-245000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-256000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-238000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-261000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-234000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-250000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-251000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-244000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-248000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-240000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-373200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-172000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-173600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-167600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-161900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-162100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-642400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-152600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-151300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-178100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>367000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>426000</v>
+      </c>
+      <c r="F21" s="3">
         <v>376000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>324000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>260000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>354000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>310000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>198000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>112000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>149000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>105000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>410000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>363000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>418600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>254300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>593200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>285200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>316200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>299500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>278200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>221600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>978500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>272000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>249900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>177000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
-        <v>2000</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>2000</v>
@@ -1724,10 +1803,10 @@
         <v>2000</v>
       </c>
       <c r="J22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="K22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L22" s="3">
         <v>1000</v>
@@ -1738,11 +1817,11 @@
       <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="O22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1000</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1756,11 +1835,11 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1777,162 +1856,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>361000</v>
+      </c>
+      <c r="F23" s="3">
         <v>312000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>260000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>193000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>287000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>244000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>130000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>53000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>76000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>34000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>337000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>293000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>340400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>183000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>516900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>249800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>281900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>265500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>247200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>191000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>837400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>235100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>215000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>138900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F24" s="3">
         <v>73000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>30000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>79000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-73000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>42800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>55000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>118300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>53700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>50900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>48200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>45300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>26100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>208900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>66000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>59500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>20100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2105,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>265000</v>
+      </c>
+      <c r="F26" s="3">
         <v>239000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>199000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>163000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>208000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>317000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>105000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>101000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-5000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>323000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>234000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>297600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>128000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>398700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>196000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>231000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>217400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>201800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>164900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>628500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>169100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>155500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>118900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F27" s="3">
         <v>238000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>199000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>116000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>209000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>317000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>104000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-23000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>101000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>323000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>48000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>209700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>128000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>374100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>171700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>231000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>217400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>201800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>108800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>469300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>169100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>155500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>22900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2354,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2251,14 +2372,14 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>1000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
@@ -2266,49 +2387,49 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-19000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-1000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-4000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>71000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>50400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>17000</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-5600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>149900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2316,8 +2437,14 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2520,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2603,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>280000</v>
+      </c>
+      <c r="F32" s="3">
         <v>287000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>258000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>260000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>245000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>256000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>238000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>261000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>234000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>250000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>251000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>244000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>248000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>240000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>373200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>172000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>173600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>167600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>161900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>162100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>642400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>152600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>151300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>178100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F33" s="3">
         <v>238000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>199000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>117000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>209000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>317000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>104000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-23000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>82000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>319000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>119000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>260200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>145000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>374100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>171700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>228800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>217200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>196300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>258600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>437600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>169100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>155500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>22900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2852,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F35" s="3">
         <v>238000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>199000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>117000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>209000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>317000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>104000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-23000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>82000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>319000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>119000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>260200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>145000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>374100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>171700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>228800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>217200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>196300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>258600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>437600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>169100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>155500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>22900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +3058,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,85 +3089,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3288000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3001000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3808000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4216000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4813000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>4787000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4529000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4072000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4907000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4717000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4549000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2668000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4194000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1467500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2716800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2441300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2337300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2073000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1853400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1011000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>857900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>650600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>970600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>985400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>972400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,316 +3251,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>997000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1086000</v>
+      </c>
+      <c r="F43" s="3">
         <v>990000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>890000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>751000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>861000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>759000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>736000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>676000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>756000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>765000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1039000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1068000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1111700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1206100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1207900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>674300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>704300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>658200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>645000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>556700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>636100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>606000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>574000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>512800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1439000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="F44" s="3">
         <v>1320000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1242000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1215000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1185000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1225000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1240000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1284000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1283000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1344000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1313000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1294000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1232600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1413900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1453000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>838700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>805300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>815300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>767200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>743900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>730700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>743600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>725000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>715400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F45" s="3">
         <v>190000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>216000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>192000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>197000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>210000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>310000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>207000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>204000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>113000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>180000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>96000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1053400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>74400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>493200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>76300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>74700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>58600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>46900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>112900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>116200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>66900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>36100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>34900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5929000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5649000</v>
+      </c>
+      <c r="F46" s="3">
         <v>6308000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6564000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6971000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>7030000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6723000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6358000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7074000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6960000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6771000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5200000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6652000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4865200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5411200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5595500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3926600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3657300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>3385400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2470100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2271300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2133600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2387000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2320400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2235400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3395,46 +3604,46 @@
         <v>1000</v>
       </c>
       <c r="G47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="3">
         <v>2000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>3000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>4000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>5000</v>
       </c>
       <c r="M47" s="3">
         <v>6000</v>
       </c>
       <c r="N47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O47" s="3">
         <v>6000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q47" s="3">
         <v>7200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>100</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>8</v>
@@ -3448,171 +3657,189 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>892000</v>
+      </c>
+      <c r="F48" s="3">
         <v>903000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>898000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>883000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>864000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>875000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>897000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>870000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>855000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>846000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>850000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>855000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>756800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>745500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>737600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>396000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>388300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>380500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>352500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>327300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>324900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>326300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>319400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>314600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11469000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11391000</v>
+      </c>
+      <c r="F49" s="3">
         <v>11499000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11253000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11320000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11359000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>11429000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>11439000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>10531000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>10499000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10492000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>10515000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10583000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10563900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11418700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>11338800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8001500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>8011700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>7924300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>7459100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>7448500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>7463200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>7553200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>7488200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>7422600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3915,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3998,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>166000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>174000</v>
+      </c>
+      <c r="F52" s="3">
         <v>108000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>125000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>67000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>60000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>59000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>41000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>80000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>75000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>64000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>60000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>61600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>117600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>125100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>65100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>140200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>114300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>113000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>65000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>54000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>49800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>59300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>64600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4164,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18489000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>18107000</v>
+      </c>
+      <c r="F54" s="3">
         <v>18819000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18841000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19242000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>19315000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>19089000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>18739000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18557000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>18395000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>18179000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16635000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>18156000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16254700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17702600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17797200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12389300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12197500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11804500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10394700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10112100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9975700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10316400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10187300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>10037100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4282,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,102 +4313,110 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F57" s="3">
         <v>248000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>238000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>212000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>227000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>206000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>214000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>197000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>218000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>231000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>266000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>265000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>276600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>310400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>318600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>176000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>173600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>155900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>151700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>145000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>148800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>147100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>139000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>129500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>428000</v>
+      </c>
+      <c r="F58" s="3">
         <v>429000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>429000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>428000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>628000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>628000</v>
       </c>
       <c r="I58" s="3">
         <v>628000</v>
@@ -4158,366 +4425,396 @@
         <v>628000</v>
       </c>
       <c r="K58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="L58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="M58" s="3">
         <v>627000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>631000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>631000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>431000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>429700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>380800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>748000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>375500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>375300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>375700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>369000</v>
-      </c>
-      <c r="V58" s="3">
-        <v>368900</v>
       </c>
       <c r="W58" s="3">
         <v>369000</v>
       </c>
       <c r="X58" s="3">
+        <v>368900</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>369000</v>
+      </c>
+      <c r="Z58" s="3">
         <v>264100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>264000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>264000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>719000</v>
+      </c>
+      <c r="F59" s="3">
         <v>667000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>634000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>738000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>808000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>802000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>738000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>738000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>771000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>789000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>759000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2654000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>832400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>689400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>659600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>399700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>351400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>285500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>292100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>309500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>353200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>319600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>329700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>305400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1408000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1426000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1344000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1301000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1378000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1663000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1636000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1580000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1563000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1616000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1651000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1656000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3350000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1538800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1380600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1726200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>951300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>817200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>812800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>823400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>871000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>730700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>732600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>698900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19375000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>19513000</v>
+      </c>
+      <c r="F61" s="3">
         <v>19526000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>19394000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>19514000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>19470000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>19483000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>19501000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>19468000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>19439000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19465000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>17989000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>18003000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>16469200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>16495900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>16509200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>12507600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>12501900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>12516000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>11365800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>11378300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>11393600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>10828200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>10839300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>10555900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1034000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>934000</v>
+      </c>
+      <c r="F62" s="3">
         <v>917000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1039000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>976000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1092000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1102000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1179000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1247000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1308000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1242000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1195000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1102000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1131800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1136700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1044000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>597300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>603600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>569800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>525400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>510100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>662300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>653000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>654200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>656900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4890,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4973,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +5056,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21825000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21880000</v>
+      </c>
+      <c r="F66" s="3">
         <v>21795000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>21740000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21875000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22231000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22227000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>22267000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22285000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22367000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22362000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20844000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22459000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19149600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>19023800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19288900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>14056200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14005900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>13903000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>12704000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>12711800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>12926900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>12211900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>12226100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>11911700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5174,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5253,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5336,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5419,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5502,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3687000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3914000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3114000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3350000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3545000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5668,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5751,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5834,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3336000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3773000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2976000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2899000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2633000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +6000,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>226000</v>
+      </c>
+      <c r="F81" s="3">
         <v>238000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>199000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>117000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>209000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>317000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>104000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-23000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>82000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>319000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>119000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>260200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>145000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>374100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>171700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>228800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>217200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>196300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>258600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>437600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>169100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>155500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>22900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6206,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F83" s="3">
         <v>61000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>62000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>65000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>65000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>64000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>66000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>58000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>72000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>70000</v>
       </c>
       <c r="M83" s="3">
         <v>72000</v>
       </c>
       <c r="N83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>72000</v>
+      </c>
+      <c r="P83" s="3">
         <v>69000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>78200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>71300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>76200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>35400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>34300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>33900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>31000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>30600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>141000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>36900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>34900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>38000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6368,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6451,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6534,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6617,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6700,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>273000</v>
+      </c>
+      <c r="F89" s="3">
         <v>309000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>87000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>279000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>289000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>252000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>98000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>274000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>222000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>397000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>161000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>433000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>247100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>315400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>453000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>329900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>331300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>237200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>160900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>292800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>788700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>164700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>164700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>225800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6818,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-29000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-32000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-25000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-25000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-29000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-43000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-12000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-27000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-21200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-43400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-23200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-19200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-15600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-15300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-71000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-21800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6980,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +7063,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-451000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-25000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-37000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>204000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-923000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-29000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-43000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-12000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-23000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>877000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>148400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-424600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-52500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-108900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-551200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-15300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-287000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-123600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-95500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-51800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,85 +7181,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-38000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1045000</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-46000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-73000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-64000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-24300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-24300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-56100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7343,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7426,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7509,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1032000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-244000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-647000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-225000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-13000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-15000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1493000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1414000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>3914800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-10400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-4000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>1161600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-71000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-61000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-56900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-784700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-22000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-2000</v>
       </c>
       <c r="N101" s="3">
         <v>3000</v>
       </c>
       <c r="O101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-4500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-5300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>5500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>5000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-807000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-408000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-597000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>26000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>258000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>457000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-835000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>190000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>168000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1881000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2727000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-112100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>755900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>264300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>219600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>842400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>153100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>207300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-936400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>13000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-614600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1592000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1397000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1510000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1398000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1327000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1194000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1279000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1218000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1194000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1108000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1173000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1022000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1443000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1465000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1375600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1521000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2189200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>993300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1049400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>980700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>933100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>848000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3504300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>907700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>873200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>814000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>660000</v>
+      </c>
+      <c r="E9" s="3">
         <v>599000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>620300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>579100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>590000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>533000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>547000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>561000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>579000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>554000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>613000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>512000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>622000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>663000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>582700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>711000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>942600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>423400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>445100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>404400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>396400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>370400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1495100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>383200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>377900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>352700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E10" s="3">
         <v>798000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>889700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>818900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>737000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>661000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>732000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>657000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>615000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>554000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>560000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>510000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>821000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>802000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>792900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>810000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1246600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>569900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>604300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>576300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>536700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>477600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2009200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>524500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>495300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>461300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1069,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,108 +1239,114 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-53000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-18100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>135000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>53500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>12000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>31100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>6200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>8100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>18600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="E15" s="3">
         <v>34000</v>
       </c>
       <c r="F15" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="G15" s="3">
         <v>33000</v>
       </c>
       <c r="H15" s="3">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="I15" s="3">
         <v>36000</v>
@@ -1335,61 +1358,64 @@
         <v>36000</v>
       </c>
       <c r="L15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="M15" s="3">
         <v>29000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>40000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>50000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>38000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>20000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>18700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>19200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>17500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>89200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>23600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>22100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>25500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>902000</v>
+      </c>
+      <c r="E17" s="3">
         <v>811000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>869000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>796000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>807000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>739000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>745000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>716000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>824000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>793000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>862000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>737000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>854000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>927000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>787200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1098000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1299100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>571500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>593900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>547500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>524000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>495000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2024500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>520000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>506900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>497000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>690000</v>
+      </c>
+      <c r="E18" s="3">
         <v>586000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>641000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>602000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>520000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>455000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>534000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>502000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>370000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>315000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>311000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>285000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>589000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>538000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>588400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>423000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>890100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>421800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>455500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>433200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>409100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>353100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1479800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>387700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>366300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>317000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,188 +1646,195 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-290000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-282000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-280000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-287000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-258000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-260000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-245000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-256000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-238000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-261000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-234000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-250000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-251000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-244000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-248000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-240000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-373200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-172000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-173600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-167600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-161900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-162100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-642400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-152600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-151300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-178100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E21" s="3">
         <v>367000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>426000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>376000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>324000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>260000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>354000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>310000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>198000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>149000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>105000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>410000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>363000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>418600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>254300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>593200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>285200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>316200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>299500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>278200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>221600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>978500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>272000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>249900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>177000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2000</v>
       </c>
       <c r="H22" s="3">
         <v>2000</v>
@@ -1809,7 +1849,7 @@
         <v>2000</v>
       </c>
       <c r="L22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="M22" s="3">
         <v>1000</v>
@@ -1823,8 +1863,8 @@
       <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>1000</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1841,8 +1881,8 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1862,174 +1902,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>397000</v>
+      </c>
+      <c r="E23" s="3">
         <v>301000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>361000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>312000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>260000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>193000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>287000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>244000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>130000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>76000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>34000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>337000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>293000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>340400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>183000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>516900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>249800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>281900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>265500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>247200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>191000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>837400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>235100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>215000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>138900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E24" s="3">
         <v>72000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>96000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>73000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>30000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>79000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-73000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>25000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>59000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>118300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>53700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>50900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>48200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>45300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>26100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>208900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>66000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>59500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E26" s="3">
         <v>229000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>265000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>239000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>199000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>163000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>208000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>317000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>105000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>101000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>323000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>234000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>297600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>128000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>398700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>196000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>231000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>217400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>201800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>164900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>628500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>169100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>155500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>118900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E27" s="3">
         <v>190000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>226000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>238000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>199000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>209000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>317000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>101000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>323000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>209700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>128000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>374100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>171700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>231000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>217400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>201800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>108800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>469300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>169100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>155500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>22900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2418,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2378,11 +2439,11 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
@@ -2393,46 +2454,46 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-19000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>71000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>50400</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>17000</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-5600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>149900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2443,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2676,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E32" s="3">
         <v>282000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>280000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>287000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>258000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>260000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>245000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>256000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>238000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>261000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>234000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>250000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>251000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>244000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>248000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>240000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>373200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>172000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>173600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>167600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>161900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>162100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>642400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>152600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>151300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>178100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E33" s="3">
         <v>190000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>226000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>238000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>199000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>117000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>209000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>317000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>82000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>319000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>119000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>260200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>145000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>374100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>171700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>228800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>217200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>196300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>258600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>437600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>169100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>155500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>22900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E35" s="3">
         <v>190000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>226000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>238000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>199000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>117000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>209000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>317000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>82000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>319000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>119000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>260200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>145000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>374100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>171700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>228800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>217200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>196300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>258600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>437600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>169100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>155500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>22900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,91 +3177,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3418000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3288000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3001000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3808000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4216000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4813000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4787000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4529000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4072000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4907000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4717000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4549000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2668000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4194000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1467500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2716800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2441300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2337300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2073000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1853400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1011000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>857900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>650600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>970600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>985400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>972400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,340 +3347,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1178000</v>
+      </c>
+      <c r="E43" s="3">
         <v>997000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1086000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>990000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>890000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>751000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>861000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>759000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>736000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>676000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>756000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>765000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1039000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1068000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1111700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1206100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1207900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>674300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>704300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>658200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>645000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>556700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>636100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>606000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>574000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>512800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1529000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1439000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1332000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1320000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1242000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1215000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1185000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1225000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1240000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1284000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1283000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1344000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1313000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1294000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1232600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1413900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1453000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>838700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>805300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>815300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>767200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>743900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>730700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>743600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>725000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>715400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E45" s="3">
         <v>205000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>230000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>190000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>216000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>192000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>197000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>210000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>310000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>207000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>204000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>113000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>180000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>96000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1053400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>74400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>493200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>76300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>74700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>58600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>46900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>112900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>116200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>66900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>36100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>34900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7456000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5929000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5649000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6308000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6564000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6971000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7030000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6723000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6358000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7074000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6960000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6771000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6652000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4865200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5411200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5595500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3926600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3657300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3385400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2470100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2271300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2133600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2387000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2320400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2235400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3610,43 +3715,43 @@
         <v>1000</v>
       </c>
       <c r="I47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="3">
         <v>2000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>6000</v>
       </c>
       <c r="P47" s="3">
         <v>6000</v>
       </c>
       <c r="Q47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R47" s="3">
         <v>7200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9600</v>
-      </c>
-      <c r="S47" s="3">
-        <v>100</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>100</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
@@ -3663,8 +3768,8 @@
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -3672,174 +3777,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>933000</v>
+      </c>
+      <c r="E48" s="3">
         <v>924000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>892000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>903000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>898000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>883000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>864000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>875000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>897000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>870000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>855000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>846000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>850000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>855000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>756800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>745500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>737600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>396000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>388300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>380500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>352500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>327300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>324900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>326300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>319400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>314600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11468000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11469000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11391000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11499000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11253000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11320000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11359000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11429000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11439000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10531000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10499000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10492000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10515000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10583000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10563900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11418700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11338800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8001500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8011700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7924300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7459100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7448500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7463200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7553200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7488200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7422600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4121,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E52" s="3">
         <v>166000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>174000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>108000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>67000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>60000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>59000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>41000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>80000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>65000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>64000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>60000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>61600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>117600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>125100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>65100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>140200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>114300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>113000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>65000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>54000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>49800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>59300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>64600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4293,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20008000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18489000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18107000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18819000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18841000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19242000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19315000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19089000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18739000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18557000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18395000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18179000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16635000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18156000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16254700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17702600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17797200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12389300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12197500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11804500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10394700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10112100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9975700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10316400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10187300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10037100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,111 +4445,115 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>292000</v>
+      </c>
+      <c r="E57" s="3">
         <v>271000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>279000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>248000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>238000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>212000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>227000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>206000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>214000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>197000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>218000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>231000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>266000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>265000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>276600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>310400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>318600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>176000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>173600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>155900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>151700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>145000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>148800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>147100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>139000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>129500</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>428000</v>
+        <v>1512000</v>
       </c>
       <c r="E58" s="3">
         <v>428000</v>
       </c>
       <c r="F58" s="3">
-        <v>429000</v>
+        <v>428000</v>
       </c>
       <c r="G58" s="3">
         <v>429000</v>
       </c>
       <c r="H58" s="3">
+        <v>429000</v>
+      </c>
+      <c r="I58" s="3">
         <v>428000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>628000</v>
       </c>
       <c r="J58" s="3">
         <v>628000</v>
@@ -4431,390 +4565,405 @@
         <v>628000</v>
       </c>
       <c r="M58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="N58" s="3">
         <v>627000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>631000</v>
       </c>
       <c r="O58" s="3">
         <v>631000</v>
       </c>
       <c r="P58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>431000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>429700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>380800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>748000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>375500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>375300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>375700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>369000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>368900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>369000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>264100</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>264000</v>
       </c>
       <c r="AB58" s="3">
         <v>264000</v>
       </c>
       <c r="AC58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="AD58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E59" s="3">
         <v>709000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>719000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>667000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>634000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>738000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>808000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>802000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>738000</v>
       </c>
       <c r="L59" s="3">
         <v>738000</v>
       </c>
       <c r="M59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="N59" s="3">
         <v>771000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>789000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>759000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2654000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>832400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>689400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>659600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>399700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>351400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>285500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>292100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>309500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>353200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>319600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>329700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>305400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2522000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1408000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1426000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1344000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1301000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1378000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1663000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1636000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1580000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1563000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1616000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1651000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1656000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3350000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1538800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1380600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1726200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>951300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>817200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>812800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>823400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>871000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>730700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>732600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>698900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19349000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19375000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19513000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19526000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19394000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19514000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19470000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19483000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19501000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19468000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19439000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19465000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17989000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18003000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16469200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16495900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16509200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12507600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12501900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12516000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11365800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11378300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11393600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10828200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10839300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10555900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1030000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1034000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>934000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>917000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1039000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>976000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1092000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1102000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1179000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1247000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1308000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1242000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1195000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1102000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1131800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1136700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1044000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>597300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>603600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>569800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>525400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>510100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>662300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>653000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>654200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>656900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5217,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22909000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21825000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21880000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21795000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21740000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21875000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22231000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22227000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22267000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22285000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22367000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22362000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20844000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22459000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19149600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19023800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19288900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14056200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14005900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>13903000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>12704000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12711800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12926900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12211900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12226100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>11911700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5679,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3384000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3687000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3914000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3114000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3350000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3545000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6023,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2901000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3336000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3773000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2976000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2899000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2633000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E81" s="3">
         <v>190000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>226000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>238000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>199000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>117000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>209000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>317000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>82000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>319000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>119000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>260200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>145000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>374100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>171700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>228800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>217200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>196300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>258600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>437600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>169100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>155500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>22900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>65000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>62000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>65000</v>
       </c>
       <c r="I83" s="3">
         <v>65000</v>
       </c>
       <c r="J83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="K83" s="3">
         <v>64000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>58000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>72000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>70000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>72000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>69000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>78200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>76200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>35400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>34300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>33900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>31000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>30600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>141000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>36900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>34900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>38000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E89" s="3">
         <v>377000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>273000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>309000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>87000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>279000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>289000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>252000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>98000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>274000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>222000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>397000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>161000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>433000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>247100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>315400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>453000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>329900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>331300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>237200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>160900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>292800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>788700</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>164700</v>
       </c>
       <c r="AA89" s="3">
         <v>164700</v>
       </c>
       <c r="AB89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="AC89" s="3">
         <v>225800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-33000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-29000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-25000</v>
       </c>
       <c r="I91" s="3">
         <v>-25000</v>
       </c>
       <c r="J91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-37000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-71000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-16600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-21800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-48000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-451000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-37000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>204000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-923000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-23000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>877000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>148400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-424600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-52500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-108900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-551200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-287000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-123600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-95500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-51800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,29 +7416,30 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-38000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1045000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-46000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -7213,34 +7447,34 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-73000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-24300</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
@@ -7249,25 +7483,28 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-56100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,253 +7758,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1133000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-65000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1032000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-244000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-647000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-225000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1493000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1414000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3914800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1161600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-61000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-56900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-784700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
         <v>16000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2000</v>
       </c>
       <c r="J101" s="3">
         <v>2000</v>
       </c>
       <c r="K101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L101" s="3">
         <v>3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-5300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="E102" s="3">
         <v>287000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-807000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-408000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-597000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>258000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>457000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-835000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>190000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>168000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1881000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2727000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-112100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>755900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>264300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>219600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>842400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>153100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>207300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-936400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>13000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-614600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,393 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1592000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1397000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1510000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1398000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1327000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1194000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1279000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1218000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1194000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1108000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1173000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1022000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1443000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1465000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1375600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1521000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2189200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>993300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1049400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>980700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>933100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>848000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3504300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>907700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>873200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>814000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E9" s="3">
         <v>660000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>599000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>620300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>579100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>590000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>533000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>547000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>561000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>579000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>554000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>613000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>512000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>622000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>663000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>582700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>711000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>942600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>423400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>445100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>404400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>396400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>370400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1495100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>383200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>377900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>352700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E10" s="3">
         <v>932000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>798000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>889700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>818900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>737000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>661000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>732000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>657000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>615000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>554000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>560000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>510000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>821000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>802000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>792900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>810000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1246600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>569900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>604300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>576300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>536700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>477600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2009200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>524500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>495300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>461300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,8 +1082,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,114 +1258,120 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E14" s="3">
         <v>11000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-53000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-18100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>135000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>53500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>12000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>31100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>6200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>8100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>18600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E15" s="3">
         <v>35000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>34000</v>
       </c>
       <c r="F15" s="3">
         <v>34000</v>
       </c>
       <c r="G15" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="H15" s="3">
         <v>33000</v>
       </c>
       <c r="I15" s="3">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="J15" s="3">
         <v>36000</v>
@@ -1361,61 +1383,64 @@
         <v>36000</v>
       </c>
       <c r="M15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="N15" s="3">
         <v>29000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>40000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>50000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>38000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>20000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>18700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>19200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>17500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>17100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>89200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>23600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>22100</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>25500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1468,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>993000</v>
+      </c>
+      <c r="E17" s="3">
         <v>902000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>811000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>869000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>796000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>807000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>739000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>745000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>716000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>824000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>793000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>862000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>737000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>854000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>927000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>787200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1098000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1299100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>571500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>593900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>547500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>524000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>495000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2024500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>520000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>506900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>497000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E18" s="3">
         <v>690000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>586000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>641000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>602000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>520000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>455000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>534000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>502000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>370000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>315000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>311000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>285000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>589000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>538000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>588400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>423000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>890100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>421800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>455500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>433200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>409100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>353100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1479800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>387700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>366300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>317000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,180 +1679,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-279000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-290000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-282000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-280000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-287000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-258000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-260000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-245000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-256000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-238000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-261000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-234000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-250000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-244000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-248000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-240000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-373200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-172000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-173600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-167600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-161900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-162100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-642400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-152600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-151300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-178100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E21" s="3">
         <v>466000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>367000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>426000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>376000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>324000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>260000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>354000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>310000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>198000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>112000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>149000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>105000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>410000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>363000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>418600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>254300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>593200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>285200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>316200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>299500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>278200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>221600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>978500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>272000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>249900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>177000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,14 +1869,14 @@
       <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2000</v>
       </c>
       <c r="I22" s="3">
         <v>2000</v>
@@ -1852,7 +1891,7 @@
         <v>2000</v>
       </c>
       <c r="M22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
@@ -1866,8 +1905,8 @@
       <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>1000</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1884,8 +1923,8 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1905,180 +1944,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E23" s="3">
         <v>397000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>301000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>361000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>312000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>260000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>193000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>287000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>244000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>130000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>76000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>34000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>337000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>293000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>340400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>183000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>516900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>249800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>281900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>265500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>247200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>191000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>837400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>235100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>215000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>138900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>117000</v>
+      </c>
+      <c r="E24" s="3">
         <v>93000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>72000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>96000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>73000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>79000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-73000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>59000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>118300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>53700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>50900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>48200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>45300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>26100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>208900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>66000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>59500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>20100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,180 +2211,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E26" s="3">
         <v>304000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>229000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>265000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>239000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>199000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>163000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>208000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>317000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>105000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>101000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>323000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>234000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>297600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>128000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>398700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>196000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>231000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>217400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>201800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>164900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>628500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>169100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>155500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>118900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E27" s="3">
         <v>304000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>190000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>226000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>238000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>199000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>116000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>209000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>317000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>104000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>101000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>323000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>48000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>209700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>128000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>374100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>171700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>231000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>217400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>201800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>108800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>469300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>169100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>155500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>22900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,8 +2478,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2442,11 +2502,11 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -2457,46 +2517,46 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-19000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>71000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>50400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>17000</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>149900</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
@@ -2507,8 +2567,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2656,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2745,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E32" s="3">
         <v>290000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>282000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>280000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>287000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>258000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>260000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>245000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>256000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>238000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>261000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>234000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>250000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>251000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>244000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>248000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>240000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>373200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>172000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>173600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>167600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>161900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>162100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>642400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>152600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>151300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>178100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E33" s="3">
         <v>304000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>190000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>226000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>238000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>199000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>117000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>209000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>317000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>104000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-23000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>82000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>319000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>119000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>260200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>145000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>374100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>171700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>228800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>217200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>196300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>258600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>437600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>169100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>155500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>22900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3012,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E35" s="3">
         <v>304000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>190000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>226000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>238000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>199000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>117000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>209000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>317000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>104000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-23000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>82000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>319000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>119000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>260200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>145000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>374100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>171700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>228800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>217200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>196300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>258600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>437600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>169100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>155500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>22900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3230,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,94 +3263,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3071000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3418000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3288000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3001000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3808000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4216000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4813000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4787000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4529000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4072000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4907000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4717000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4549000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2668000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4194000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1467500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2716800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2441300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2337300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2073000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1853400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1011000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>857900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>650600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>970600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>985400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>972400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3350,352 +3439,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1344000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1178000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>997000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1086000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>990000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>890000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>751000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>861000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>759000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>736000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>676000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>756000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>765000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1068000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1111700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1206100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1207900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>674300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>704300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>658200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>645000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>556700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>636100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>606000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>574000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>512800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1603000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1529000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1439000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1332000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1320000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1242000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1215000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1185000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1225000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1240000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1284000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1283000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1344000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1313000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1294000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1232600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1413900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1453000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>838700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>805300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>815300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>767200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>743900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>730700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>743600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>725000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>715400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1331000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>205000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>230000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>190000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>216000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>192000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>197000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>210000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>310000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>207000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>204000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>113000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>180000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>96000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1053400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>74400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>493200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>76300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>74700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>58600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>46900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>112900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>116200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>66900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>36100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>34900</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6252000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7456000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5929000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5649000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6308000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6564000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6971000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7030000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6723000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6358000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7074000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6960000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6771000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6652000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4865200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5411200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5595500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3926600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3657300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3385400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2470100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2271300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2133600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2387000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2320400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2235400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3718,43 +3822,43 @@
         <v>1000</v>
       </c>
       <c r="J47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>6000</v>
       </c>
       <c r="Q47" s="3">
         <v>6000</v>
       </c>
       <c r="R47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S47" s="3">
         <v>7200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9600</v>
-      </c>
-      <c r="T47" s="3">
-        <v>100</v>
       </c>
       <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
+      <c r="V47" s="3">
+        <v>100</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3771,8 +3875,8 @@
       <c r="AA47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3780,180 +3884,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E48" s="3">
         <v>933000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>924000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>892000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>903000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>898000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>883000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>864000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>875000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>897000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>870000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>855000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>846000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>850000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>855000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>756800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>745500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>737600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>396000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>388300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>380500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>352500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>327300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>324900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>326300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>319400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>314600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12086000</v>
+      </c>
+      <c r="E49" s="3">
         <v>11468000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11469000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11391000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11499000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11253000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11320000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11359000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11429000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11439000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10531000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10499000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10492000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10515000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10583000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10563900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11418700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11338800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8001500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8011700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7924300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7459100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7448500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7463200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7553200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7488200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7422600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4151,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,94 +4240,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E52" s="3">
         <v>150000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>166000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>174000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>108000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>125000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>67000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>60000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>59000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>41000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>80000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>75000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>65000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>64000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>60000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>61600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>117600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>125100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>65100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>140200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>114300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>113000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>65000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>54000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>49800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>59300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>64600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,94 +4418,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19555000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20008000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18489000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18107000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18819000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18841000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19242000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19315000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19089000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18739000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18557000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18395000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18179000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16635000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18156000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16254700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17702600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17797200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12389300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12197500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11804500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10394700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10112100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9975700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10316400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10187300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10037100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4542,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,8 +4575,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4455,108 +4585,111 @@
         <v>292000</v>
       </c>
       <c r="E57" s="3">
+        <v>292000</v>
+      </c>
+      <c r="F57" s="3">
         <v>271000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>279000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>248000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>238000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>212000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>227000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>206000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>214000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>197000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>218000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>231000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>266000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>265000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>276600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>310400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>318600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>176000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>173600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>155900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>151700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>145000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>148800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>147100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>139000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>129500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>417000</v>
+      </c>
+      <c r="E58" s="3">
         <v>1512000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>428000</v>
       </c>
       <c r="F58" s="3">
         <v>428000</v>
       </c>
       <c r="G58" s="3">
-        <v>429000</v>
+        <v>428000</v>
       </c>
       <c r="H58" s="3">
         <v>429000</v>
       </c>
       <c r="I58" s="3">
+        <v>429000</v>
+      </c>
+      <c r="J58" s="3">
         <v>428000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>628000</v>
       </c>
       <c r="K58" s="3">
         <v>628000</v>
@@ -4568,402 +4701,417 @@
         <v>628000</v>
       </c>
       <c r="N58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="O58" s="3">
         <v>627000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>631000</v>
       </c>
       <c r="P58" s="3">
         <v>631000</v>
       </c>
       <c r="Q58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="R58" s="3">
         <v>431000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>429700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>380800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>748000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>375500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>375300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>375700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>369000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>368900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>369000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>264100</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>264000</v>
       </c>
       <c r="AC58" s="3">
         <v>264000</v>
       </c>
       <c r="AD58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="AE58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>824000</v>
+      </c>
+      <c r="E59" s="3">
         <v>718000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>709000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>719000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>667000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>634000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>738000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>808000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>802000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>738000</v>
       </c>
       <c r="M59" s="3">
         <v>738000</v>
       </c>
       <c r="N59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="O59" s="3">
         <v>771000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>789000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>759000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2654000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>832400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>689400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>659600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>399700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>351400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>285500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>292100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>309500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>353200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>319600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>329700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>305400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1533000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2522000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1408000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1426000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1344000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1301000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1378000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1663000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1636000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1580000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1563000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1616000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1651000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3350000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1538800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1380600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1726200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>951300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>900400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>817200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>812800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>823400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>871000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>730700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>732600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>698900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19348000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19349000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19375000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19513000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>19526000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>19394000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>19514000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19470000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19483000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19501000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19468000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19439000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19465000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17989000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>18003000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16469200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16495900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16509200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12507600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12501900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12516000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>11365800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11378300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11393600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10828200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10839300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>10555900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1030000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1034000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>934000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>917000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1039000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>976000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1092000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1102000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1179000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1247000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1308000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1242000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1102000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1131800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1136700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1044000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>597300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>603600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>569800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>525400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>510100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>662300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>653000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>654200</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>656900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5196,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5285,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,94 +5374,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21949000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22909000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21825000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21880000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21795000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21740000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21875000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22231000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22227000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22267000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22285000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22367000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22362000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20844000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22459000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19149600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19023800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19288900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14056200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14005900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>13903000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>12704000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12711800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12926900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12211900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12226100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>11911700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5498,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5585,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5674,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5763,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,94 +5852,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3034000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3384000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3687000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3914000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3114000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3350000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3545000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6030,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6119,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,94 +6208,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2394000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2901000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3336000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3773000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2976000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2899000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2633000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6386,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>351000</v>
+      </c>
+      <c r="E81" s="3">
         <v>304000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>190000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>226000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>238000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>199000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>117000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>209000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>317000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>104000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-23000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>82000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>319000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>119000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>260200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>145000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>374100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>171700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>228800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>217200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>196300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>258600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>437600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>169100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>155500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>22900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6604,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E83" s="3">
         <v>66000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>61000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>62000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>65000</v>
       </c>
       <c r="J83" s="3">
         <v>65000</v>
       </c>
       <c r="K83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="L83" s="3">
         <v>64000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>66000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>58000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>72000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>70000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>72000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>69000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>78200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>71300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>76200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>35400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>34300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>33900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>31000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>30600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>141000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>36900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>34900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>38000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6780,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6869,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6958,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7047,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7136,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E89" s="3">
         <v>130000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>377000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>273000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>309000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>279000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>289000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>252000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>98000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>274000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>222000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>397000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>161000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>433000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>247100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>315400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>453000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>329900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>331300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>237200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>160900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>292800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>788700</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>164700</v>
       </c>
       <c r="AB89" s="3">
         <v>164700</v>
       </c>
       <c r="AC89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="AD89" s="3">
         <v>225800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7260,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-33000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-25000</v>
       </c>
       <c r="J91" s="3">
         <v>-25000</v>
       </c>
       <c r="K91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-37000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-71000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-16600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-21800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7436,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7525,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-776000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-35000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-48000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-451000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-37000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>204000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-923000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>877000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>148400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-424600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-52500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-108900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-551200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-287000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-123600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-95500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-51800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,8 +7649,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7426,23 +7659,23 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-38000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1045000</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-46000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -7450,34 +7683,34 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-73000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-64000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-24300</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -7486,25 +7719,28 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-56100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7825,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7914,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,94 +8003,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1079000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1133000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-65000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1032000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-244000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-647000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-225000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1493000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1414000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3914800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-10400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1161600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-61000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-56900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-784700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7856,167 +8104,173 @@
         <v>2000</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>16000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-22000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2000</v>
       </c>
       <c r="K101" s="3">
         <v>2000</v>
       </c>
       <c r="L101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-3900</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1447000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1230000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>287000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-807000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-408000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-597000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>258000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>457000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-835000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>190000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>168000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1881000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2727000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-112100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>755900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>264300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>219600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>842400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>153100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>207300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-936400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>13000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-614600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-79700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TDG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TDG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,406 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1852000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1744000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1592000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1397000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1510000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1398000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1327000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1194000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1279000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1218000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1194000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1108000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1173000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1022000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1443000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1465000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1375600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1521000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2189200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>993300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1049400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>980700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>933100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>848000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3504300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>907700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>873200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>814000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>875200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E9" s="3">
         <v>709000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>660000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>599000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>620300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>579100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>590000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>533000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>547000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>561000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>579000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>554000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>613000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>512000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>622000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>663000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>582700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>711000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>942600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>423400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>445100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>404400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>396400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>370400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1495100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>383200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>377900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>352700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>376100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1098000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1035000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>932000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>798000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>889700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>818900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>737000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>661000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>732000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>657000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>615000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>554000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>560000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>510000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>821000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>802000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>792900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>810000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1246600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>569900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>604300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>576300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>536700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>477600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2009200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>524500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>495300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>461300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>499100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1172,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,120 +1278,126 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="3">
         <v>42000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>11000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-53000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-18100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>135000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>53500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>12000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>31100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>6200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>8100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>18600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E15" s="3">
         <v>37000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>35000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>34000</v>
       </c>
       <c r="G15" s="3">
         <v>34000</v>
       </c>
       <c r="H15" s="3">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="I15" s="3">
         <v>33000</v>
       </c>
       <c r="J15" s="3">
-        <v>36000</v>
+        <v>33000</v>
       </c>
       <c r="K15" s="3">
         <v>36000</v>
@@ -1386,61 +1409,64 @@
         <v>36000</v>
       </c>
       <c r="N15" s="3">
+        <v>36000</v>
+      </c>
+      <c r="O15" s="3">
         <v>29000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>40000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>50000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>38000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>43100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>20000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>18700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>19200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>17500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>17100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>89200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>23600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>22100</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>25500</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1011000</v>
+      </c>
+      <c r="E17" s="3">
         <v>993000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>902000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>811000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>869000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>796000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>807000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>739000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>745000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>716000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>824000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>793000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>862000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>737000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>854000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>927000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>787200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1098000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1299100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>571500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>593900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>547500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>524000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>495000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2024500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>520000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>506900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>497000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E18" s="3">
         <v>751000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>690000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>586000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>641000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>602000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>520000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>455000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>534000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>502000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>370000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>315000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>311000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>285000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>589000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>538000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>588400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>423000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>890100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>421800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>455500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>433200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>409100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>353100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1479800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>387700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>366300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>317000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>349000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,186 +1713,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-288000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-279000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-290000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-282000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-280000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-287000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-258000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-260000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-245000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-256000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-238000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-261000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-234000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-250000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-251000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-244000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-248000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-240000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-373200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-172000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-173600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-167600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-161900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-162100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-642400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-152600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-151300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-178100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-139900</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E21" s="3">
         <v>542000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>466000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>367000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>426000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>376000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>324000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>260000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>354000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>310000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>198000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>112000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>149000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>105000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>410000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>363000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>418600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>254300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>593200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>285200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>316200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>299500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>278200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>221600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>978500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>272000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>249900</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>177000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>245700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1872,14 +1912,14 @@
       <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>2000</v>
       </c>
       <c r="J22" s="3">
         <v>2000</v>
@@ -1894,7 +1934,7 @@
         <v>2000</v>
       </c>
       <c r="N22" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="O22" s="3">
         <v>1000</v>
@@ -1908,8 +1948,8 @@
       <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>1000</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1926,8 +1966,8 @@
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1947,186 +1987,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>550000</v>
+      </c>
+      <c r="E23" s="3">
         <v>469000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>397000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>301000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>361000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>312000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>260000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>193000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>287000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>244000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>130000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>76000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>34000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>337000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>293000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>340400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>183000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>516900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>249800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>281900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>265500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>247200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>191000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>837400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>235100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>215000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>138900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E24" s="3">
         <v>117000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>93000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>72000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>96000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>73000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-73000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-25000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>39000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>59000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>42800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>118300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>53700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>50900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>48200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>45300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>26100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>208900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>66000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>59500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>20100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>16800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E26" s="3">
         <v>352000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>304000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>229000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>265000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>239000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>199000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>163000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>208000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>317000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>105000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>101000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>323000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>234000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>297600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>128000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>398700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>196000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>231000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>217400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>201800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>164900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>628500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>169100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>155500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>118900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E27" s="3">
         <v>351000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>304000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>190000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>226000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>238000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>199000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>209000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>317000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>104000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>101000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>323000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>48000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>209700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>128000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>374100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>171700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>231000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>217400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>201800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>108800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>469300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>169100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>155500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>22900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2481,8 +2539,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2505,11 +2566,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2520,46 +2581,46 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-19000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-4000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>71000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>50400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>17000</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>149900</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-31700</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>8</v>
@@ -2570,8 +2631,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E32" s="3">
         <v>279000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>290000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>282000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>280000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>287000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>258000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>260000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>245000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>256000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>238000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>261000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>234000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>250000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>251000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>244000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>248000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>240000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>373200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>172000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>173600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>167600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>161900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>162100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>642400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>152600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>151300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>178100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>139900</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E33" s="3">
         <v>351000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>304000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>190000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>226000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>238000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>199000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>117000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>209000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>317000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>104000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-23000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>82000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>319000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>119000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>260200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>145000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>374100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>171700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>228800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>217200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>196300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>258600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>437600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>169100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>155500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>22900</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E35" s="3">
         <v>351000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>304000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>190000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>226000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>238000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>199000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>117000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>209000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>317000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>104000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-23000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>82000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>319000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>119000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>260200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>145000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>374100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>171700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>228800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>217200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>196300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>258600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>437600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>169100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>155500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>22900</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3472000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3071000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3418000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3288000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3001000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3808000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4216000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4813000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4787000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4529000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4072000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4907000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4717000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4549000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2668000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4194000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1467500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2716800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2441300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2337300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2073000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1853400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1011000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>857900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>650600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>970600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>985400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>972400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1587000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3442,364 +3532,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1421000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1344000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1178000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>997000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1086000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>990000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>890000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>751000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>861000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>759000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>736000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>676000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>756000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>765000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1039000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1068000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1111700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1206100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1207900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>674300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>704300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>658200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>645000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>556700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>636100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>606000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>574000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>512800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>576300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1616000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1603000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1529000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1439000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1332000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1320000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1242000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1215000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1185000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1225000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1240000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1284000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1283000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1344000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1313000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1294000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1232600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1413900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1453000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>838700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>805300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>815300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>767200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>743900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>730700</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>743600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>725000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>715400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>724000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E45" s="3">
         <v>234000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1331000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>205000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>230000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>190000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>216000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>192000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>197000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>210000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>310000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>207000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>204000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>113000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>180000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>96000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1053400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>74400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>493200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>76300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>74700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>58600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>46900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>112900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>116200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>66900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>36100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>34900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>43400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6738000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6252000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7456000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5929000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5649000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6308000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6564000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6971000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7030000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6723000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6358000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7074000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6960000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6771000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5200000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6652000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4865200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5411200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5595500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3926600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3657300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3385400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2470100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2271300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2133600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2387000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2320400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2235400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2930700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3825,43 +3930,43 @@
         <v>1000</v>
       </c>
       <c r="K47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="3">
         <v>2000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>6000</v>
       </c>
       <c r="R47" s="3">
         <v>6000</v>
       </c>
       <c r="S47" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T47" s="3">
         <v>7200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>9600</v>
-      </c>
-      <c r="U47" s="3">
-        <v>100</v>
       </c>
       <c r="V47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
+      <c r="W47" s="3">
+        <v>100</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3878,8 +3983,8 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
@@ -3887,186 +3992,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1319000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1049000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>933000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>924000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>892000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>903000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>898000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>883000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>864000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>875000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>897000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>870000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>855000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>846000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>850000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>855000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>756800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>745500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>737600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>396000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>388300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>380500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>352500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>327300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>324900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>326300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>319400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>314600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>310600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11735000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12086000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11468000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11469000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11391000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>11499000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>11253000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11320000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11359000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11429000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11439000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10531000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10499000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10492000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10515000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10583000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10563900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11418700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11338800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8001500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8011700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7924300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7459100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7448500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7463200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>7553200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>7488200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>7422600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>7443800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E52" s="3">
         <v>167000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>150000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>166000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>174000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>108000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>125000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>67000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>59000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>41000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>80000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>75000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>65000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>64000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>60000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>61600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>117600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>125100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>65100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>140200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>114300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>113000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>65000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>54000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>49800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>59300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>64600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>41200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19970000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19555000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20008000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18489000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18107000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18819000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18841000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19242000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19315000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19089000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18739000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>18557000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>18395000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>18179000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16635000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18156000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16254700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17702600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17797200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12389300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12197500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11804500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10394700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10112100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9975700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10316400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10187300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10037100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>10726300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,123 +4706,127 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>292000</v>
+        <v>305000</v>
       </c>
       <c r="E57" s="3">
         <v>292000</v>
       </c>
       <c r="F57" s="3">
+        <v>292000</v>
+      </c>
+      <c r="G57" s="3">
         <v>271000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>279000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>248000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>238000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>212000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>227000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>206000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>214000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>197000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>218000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>231000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>266000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>265000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>276600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>310400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>318600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>176000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>173600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>155900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>151700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>145000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>148800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>147100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>139000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>129500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>156100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>420000</v>
+      </c>
+      <c r="E58" s="3">
         <v>417000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1512000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>428000</v>
       </c>
       <c r="G58" s="3">
         <v>428000</v>
       </c>
       <c r="H58" s="3">
-        <v>429000</v>
+        <v>428000</v>
       </c>
       <c r="I58" s="3">
         <v>429000</v>
       </c>
       <c r="J58" s="3">
+        <v>429000</v>
+      </c>
+      <c r="K58" s="3">
         <v>428000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>628000</v>
       </c>
       <c r="L58" s="3">
         <v>628000</v>
@@ -4704,414 +4838,429 @@
         <v>628000</v>
       </c>
       <c r="O58" s="3">
+        <v>628000</v>
+      </c>
+      <c r="P58" s="3">
         <v>627000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>631000</v>
       </c>
       <c r="Q58" s="3">
         <v>631000</v>
       </c>
       <c r="R58" s="3">
+        <v>631000</v>
+      </c>
+      <c r="S58" s="3">
         <v>431000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>429700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>380800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>748000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>375500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>375300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>375700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>369000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>368900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>369000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>264100</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>264000</v>
       </c>
       <c r="AD58" s="3">
         <v>264000</v>
       </c>
       <c r="AE58" s="3">
+        <v>264000</v>
+      </c>
+      <c r="AF58" s="3">
         <v>252400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>854000</v>
+      </c>
+      <c r="E59" s="3">
         <v>824000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>718000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>709000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>719000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>667000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>634000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>738000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>808000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>802000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>738000</v>
       </c>
       <c r="N59" s="3">
         <v>738000</v>
       </c>
       <c r="O59" s="3">
+        <v>738000</v>
+      </c>
+      <c r="P59" s="3">
         <v>771000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>789000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>759000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2654000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>832400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>689400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>659600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>399700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>351400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>285500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>292100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>309500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>353200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>319600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>329700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>305400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>344100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1579000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1533000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2522000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1408000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1426000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1344000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1301000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1378000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1663000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1636000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1580000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1563000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1616000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1651000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1656000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3350000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1538800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1380600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1726200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>951300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>900400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>817200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>812800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>823400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>871000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>730700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>732600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>698900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>752600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>19330000</v>
+      </c>
+      <c r="E61" s="3">
         <v>19348000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19349000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>19375000</v>
       </c>
-      <c r="G61" s="3">
-        <v>19513000</v>
-      </c>
       <c r="H61" s="3">
-        <v>19526000</v>
+        <v>19369000</v>
       </c>
       <c r="I61" s="3">
+        <v>19382000</v>
+      </c>
+      <c r="J61" s="3">
         <v>19394000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>19514000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>19470000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>19483000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>19501000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19468000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19439000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19465000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17989000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>18003000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16469200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16495900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>16509200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12507600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>12501900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>12516000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>11365800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>11378300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>11393600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10828200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>10839300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>10555900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>9943200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1039000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1061000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1030000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1034000</v>
       </c>
-      <c r="G62" s="3">
-        <v>934000</v>
-      </c>
       <c r="H62" s="3">
-        <v>917000</v>
+        <v>1078000</v>
       </c>
       <c r="I62" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="J62" s="3">
         <v>1039000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>976000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1092000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1102000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1179000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1247000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1308000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1242000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1195000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1102000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1131800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1136700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1044000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>597300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>603600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>569800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>525400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>510100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>662300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>653000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>654200</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>656900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>682000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5288,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21954000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21949000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22909000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21825000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21880000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21795000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21740000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21875000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22231000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22227000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22267000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22285000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22367000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22362000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20844000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22459000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19149600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19023800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19288900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14056200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14005900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>13903000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>12704000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>12711800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>12926900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>12211900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>12226100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>11911700</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>11377800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2621000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3034000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3384000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3687000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3914000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3114000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3350000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3545000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3705000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3906000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4215000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4314000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4359000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4427000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4401000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4699000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3120000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1709800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1851100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2050700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2246600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2471600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2684800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2877000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3187200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2088800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2248600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2394500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1147000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1984000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2394000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2901000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3336000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3773000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2976000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2899000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2633000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2916000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3138000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3528000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3728000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3972000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-4183000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4209000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4303000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2894900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1321200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1491800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1666900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1808500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2098500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2309300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2599700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2951200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1895400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-2038800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1874600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-651500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E81" s="3">
         <v>351000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>304000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>190000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>226000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>238000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>199000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>117000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>209000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>317000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>104000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-23000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>82000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>319000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>119000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>260200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>145000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>374100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>171700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>228800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>217200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>196300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>258600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>437600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>169100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>155500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>22900</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>192300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E83" s="3">
         <v>70000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>61000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>62000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>65000</v>
       </c>
       <c r="K83" s="3">
         <v>65000</v>
       </c>
       <c r="L83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="M83" s="3">
         <v>64000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>66000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>58000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>72000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>70000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>72000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>69000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>78200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>71300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>76200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>35400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>34300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>33900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>31000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>30600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>141000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>36900</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>34900</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>38000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>36600</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>462000</v>
+      </c>
+      <c r="E89" s="3">
         <v>406000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>130000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>377000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>273000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>309000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>279000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>289000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>252000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>98000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>274000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>222000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>397000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>161000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>433000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>247100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>315400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>453000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>329900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>331300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>237200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>160900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>292800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>788700</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>164700</v>
       </c>
       <c r="AC89" s="3">
         <v>164700</v>
       </c>
       <c r="AD89" s="3">
+        <v>164700</v>
+      </c>
+      <c r="AE89" s="3">
         <v>225800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>201100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-33000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-25000</v>
       </c>
       <c r="K91" s="3">
         <v>-25000</v>
       </c>
       <c r="L91" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-20000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-71000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-17200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-16600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-21800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-28000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-776000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-41000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-48000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-451000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-29000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-25000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-37000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>204000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-923000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>877000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>148400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-424600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3612800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-52500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-108900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-551200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-287000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-123600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-95500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-51800</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-270000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7662,23 +7896,23 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-38000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1045000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-46000</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -7686,34 +7920,34 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-73000</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1864000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-64000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1687900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
-        <v>-24300</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-24300</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-24300</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
@@ -7722,25 +7956,28 @@
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-56100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-2581600</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1376000</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1079000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1133000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-65000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1032000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-244000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-647000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-225000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1493000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1662000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1414000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1640300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3914800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-10400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1161600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-71000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1443700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-61000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-56900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-784700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-34200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>-8000</v>
       </c>
       <c r="E101" s="3">
         <v>2000</v>
       </c>
       <c r="F101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G101" s="3">
         <v>16000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2000</v>
       </c>
       <c r="L101" s="3">
         <v>2000</v>
       </c>
       <c r="M101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1447000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1230000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>287000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-807000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-408000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-597000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>258000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>457000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-835000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>190000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>168000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1881000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1526000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2727000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1249300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-112100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>755900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>264300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>219600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>842400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>153100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>207300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-936400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-14800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>13000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-614600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-79700</v>
       </c>
     </row>
